--- a/data/zh-cn/talents.xlsx
+++ b/data/zh-cn/talents.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jiayuankevinguo/Desktop/life-final/data/zh-cn/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E09E3F08-9A0C-7C43-A309-0CF4E042E3F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1073378-BAD8-AB4A-9203-F652513C0FED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/data/zh-cn/talents.xlsx
+++ b/data/zh-cn/talents.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jiayuankevinguo/Desktop/life-final/data/zh-cn/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB916D41-4AE8-5C41-913D-88D4090249B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87025471-0697-474A-89C9-04FBBA3A73AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3273,7 +3273,7 @@
   <dimension ref="A1:BJ275"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="10" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="AU187" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="AU185" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
       <selection pane="bottomRight" activeCell="AZ203" sqref="AZ203"/>

--- a/data/zh-cn/talents.xlsx
+++ b/data/zh-cn/talents.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jiayuankevinguo/Desktop/life-final/data/zh-cn/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22E2DD78-9B92-B643-9783-9A0EEF80B283}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03212A26-9559-0344-8FA5-B8BC6BFA38C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3273,10 +3273,10 @@
   <dimension ref="A1:BJ275"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="10" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="D224" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="D19" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="G234" sqref="G234"/>
+      <selection pane="bottomRight" activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="25.5" defaultRowHeight="39.75" customHeight="1"/>

--- a/data/zh-cn/talents.xlsx
+++ b/data/zh-cn/talents.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jiayuankevinguo/Desktop/life-final/data/zh-cn/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03212A26-9559-0344-8FA5-B8BC6BFA38C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D57AB36-79AB-084B-9D3A-E142F52B6F52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2706,33 +2706,12 @@
     <t>大本钟下送快递——</t>
   </si>
   <si>
-    <t>😡</t>
-  </si>
-  <si>
-    <t>😋</t>
-  </si>
-  <si>
-    <t>🙄</t>
-  </si>
-  <si>
-    <t>🥱</t>
-  </si>
-  <si>
-    <t>😭</t>
-  </si>
-  <si>
-    <t>😤</t>
-  </si>
-  <si>
     <t>只会成为大罪</t>
   </si>
   <si>
     <t>缘分碎片</t>
   </si>
   <si>
-    <t>口</t>
-  </si>
-  <si>
     <t>特殊的碎片</t>
   </si>
   <si>
@@ -2854,6 +2833,27 @@
   </si>
   <si>
     <t>1146</t>
+  </si>
+  <si>
+    <t>申气了</t>
+  </si>
+  <si>
+    <t>压抑了</t>
+  </si>
+  <si>
+    <t>摆了</t>
+  </si>
+  <si>
+    <t>饿了</t>
+  </si>
+  <si>
+    <t>口了</t>
+  </si>
+  <si>
+    <t>玉玉了</t>
+  </si>
+  <si>
+    <t>典</t>
   </si>
 </sst>
 </file>
@@ -3272,11 +3272,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BJ275"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="10" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="D19" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="81" zoomScaleNormal="10" workbookViewId="0">
+      <pane xSplit="3" ySplit="2" topLeftCell="D253" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C30" sqref="C30"/>
+      <selection pane="bottomRight" activeCell="D266" sqref="D266"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="25.5" defaultRowHeight="39.75" customHeight="1"/>
@@ -4006,7 +4006,7 @@
         <v>679</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>747</v>
+        <v>740</v>
       </c>
       <c r="E19" s="1">
         <v>0</v>
@@ -4368,7 +4368,7 @@
         <v>-10</v>
       </c>
       <c r="AV35" s="6" t="s">
-        <v>785</v>
+        <v>778</v>
       </c>
       <c r="AW35" s="6"/>
       <c r="AX35" s="6"/>
@@ -4472,10 +4472,10 @@
         <v>49</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>772</v>
+        <v>765</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>773</v>
+        <v>766</v>
       </c>
       <c r="E41" s="1">
         <v>2</v>
@@ -5049,7 +5049,7 @@
         <v>609</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>774</v>
+        <v>767</v>
       </c>
       <c r="D68" s="1" t="s">
         <v>513</v>
@@ -5181,7 +5181,7 @@
         <v>82</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>782</v>
+        <v>775</v>
       </c>
       <c r="C74" s="1" t="s">
         <v>590</v>
@@ -5411,7 +5411,7 @@
         <v>474</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>770</v>
+        <v>763</v>
       </c>
       <c r="D84" s="1" t="s">
         <v>215</v>
@@ -5443,7 +5443,7 @@
         <v>475</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>769</v>
+        <v>762</v>
       </c>
       <c r="D85" s="1" t="s">
         <v>215</v>
@@ -6045,10 +6045,10 @@
         <v>235</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>783</v>
+        <v>776</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>784</v>
+        <v>777</v>
       </c>
       <c r="E107" s="1">
         <v>1</v>
@@ -6072,7 +6072,7 @@
       </c>
       <c r="AV108" s="6"/>
       <c r="AW108" s="6" t="s">
-        <v>779</v>
+        <v>772</v>
       </c>
       <c r="AX108" s="6"/>
     </row>
@@ -8163,7 +8163,7 @@
         <v>686</v>
       </c>
       <c r="C191" s="1" t="s">
-        <v>757</v>
+        <v>750</v>
       </c>
       <c r="E191" s="1">
         <v>0</v>
@@ -8199,7 +8199,7 @@
         <v>521</v>
       </c>
       <c r="C193" s="1" t="s">
-        <v>758</v>
+        <v>751</v>
       </c>
       <c r="E193" s="1">
         <v>0</v>
@@ -8228,7 +8228,7 @@
         <v>595</v>
       </c>
       <c r="AX194" s="6" t="s">
-        <v>780</v>
+        <v>773</v>
       </c>
       <c r="AY194" s="1">
         <v>3095</v>
@@ -8254,7 +8254,7 @@
         <v>595</v>
       </c>
       <c r="AX195" s="6" t="s">
-        <v>780</v>
+        <v>773</v>
       </c>
       <c r="AY195" s="1">
         <v>3095</v>
@@ -8280,7 +8280,7 @@
         <v>593</v>
       </c>
       <c r="AX196" s="6" t="s">
-        <v>780</v>
+        <v>773</v>
       </c>
       <c r="AY196" s="1">
         <v>3095</v>
@@ -8311,7 +8311,7 @@
         <v>525</v>
       </c>
       <c r="C198" s="1" t="s">
-        <v>759</v>
+        <v>752</v>
       </c>
       <c r="E198" s="1">
         <v>2</v>
@@ -8396,7 +8396,7 @@
         <v>652</v>
       </c>
       <c r="AX200" s="6" t="s">
-        <v>781</v>
+        <v>774</v>
       </c>
       <c r="AY200" s="1">
         <v>3004</v>
@@ -8777,7 +8777,7 @@
         <v>547</v>
       </c>
       <c r="C216" s="1" t="s">
-        <v>754</v>
+        <v>747</v>
       </c>
       <c r="E216" s="1">
         <v>0</v>
@@ -8828,10 +8828,10 @@
         <v>3033</v>
       </c>
       <c r="B219" s="1" t="s">
-        <v>763</v>
+        <v>756</v>
       </c>
       <c r="C219" s="1" t="s">
-        <v>767</v>
+        <v>760</v>
       </c>
       <c r="E219" s="1">
         <v>0</v>
@@ -8845,10 +8845,10 @@
         <v>3034</v>
       </c>
       <c r="B220" s="1" t="s">
-        <v>764</v>
+        <v>757</v>
       </c>
       <c r="C220" s="1" t="s">
-        <v>766</v>
+        <v>759</v>
       </c>
       <c r="E220" s="1">
         <v>0</v>
@@ -8862,10 +8862,10 @@
         <v>3035</v>
       </c>
       <c r="B221" s="1" t="s">
-        <v>765</v>
+        <v>758</v>
       </c>
       <c r="C221" s="1" t="s">
-        <v>762</v>
+        <v>755</v>
       </c>
       <c r="E221" s="1">
         <v>0</v>
@@ -8930,7 +8930,7 @@
         <v>3041</v>
       </c>
       <c r="B225" s="1" t="s">
-        <v>748</v>
+        <v>741</v>
       </c>
       <c r="C225" s="1" t="s">
         <v>570</v>
@@ -8967,7 +8967,7 @@
         <v>629</v>
       </c>
       <c r="C227" s="9" t="s">
-        <v>768</v>
+        <v>761</v>
       </c>
       <c r="E227" s="1">
         <v>2</v>
@@ -9655,7 +9655,7 @@
         <v>566</v>
       </c>
       <c r="C244" s="1" t="s">
-        <v>753</v>
+        <v>746</v>
       </c>
       <c r="E244" s="1">
         <v>0</v>
@@ -9731,7 +9731,7 @@
         <v>508</v>
       </c>
       <c r="C247" s="1" t="s">
-        <v>761</v>
+        <v>754</v>
       </c>
       <c r="E247" s="1">
         <v>0</v>
@@ -9748,7 +9748,7 @@
         <v>599</v>
       </c>
       <c r="C248" s="1" t="s">
-        <v>746</v>
+        <v>739</v>
       </c>
       <c r="E248" s="1">
         <v>1</v>
@@ -9855,7 +9855,7 @@
         <v>602</v>
       </c>
       <c r="C250" s="1" t="s">
-        <v>771</v>
+        <v>764</v>
       </c>
       <c r="E250" s="1">
         <v>1</v>
@@ -9875,7 +9875,7 @@
         <v>624</v>
       </c>
       <c r="D251" s="1" t="s">
-        <v>760</v>
+        <v>753</v>
       </c>
       <c r="E251" s="1">
         <v>0</v>
@@ -9901,7 +9901,7 @@
         <v>625</v>
       </c>
       <c r="D252" s="1" t="s">
-        <v>760</v>
+        <v>753</v>
       </c>
       <c r="E252" s="1">
         <v>0</v>
@@ -9932,7 +9932,7 @@
       <c r="AV253" s="6"/>
       <c r="AW253" s="6"/>
       <c r="AX253" s="6" t="s">
-        <v>780</v>
+        <v>773</v>
       </c>
     </row>
     <row r="254" spans="1:52" ht="39.75" customHeight="1">
@@ -9978,7 +9978,7 @@
         <v>618</v>
       </c>
       <c r="C255" s="1" t="s">
-        <v>755</v>
+        <v>748</v>
       </c>
       <c r="E255" s="1">
         <v>0</v>
@@ -9995,7 +9995,7 @@
         <v>619</v>
       </c>
       <c r="C256" s="1" t="s">
-        <v>756</v>
+        <v>749</v>
       </c>
       <c r="E256" s="1">
         <v>1</v>
@@ -10043,7 +10043,7 @@
         <v>696</v>
       </c>
       <c r="C259" s="1" t="s">
-        <v>750</v>
+        <v>743</v>
       </c>
       <c r="E259" s="1">
         <v>2</v>
@@ -10102,7 +10102,7 @@
         <v>700</v>
       </c>
       <c r="C263" s="1" t="s">
-        <v>736</v>
+        <v>779</v>
       </c>
       <c r="E263" s="1">
         <v>0</v>
@@ -10137,7 +10137,7 @@
         <v>701</v>
       </c>
       <c r="C264" s="1" t="s">
-        <v>737</v>
+        <v>780</v>
       </c>
       <c r="E264" s="1">
         <v>0</v>
@@ -10172,7 +10172,7 @@
         <v>702</v>
       </c>
       <c r="C265" s="1" t="s">
-        <v>738</v>
+        <v>781</v>
       </c>
       <c r="E265" s="1">
         <v>0</v>
@@ -10207,7 +10207,7 @@
         <v>703</v>
       </c>
       <c r="C266" s="1" t="s">
-        <v>739</v>
+        <v>782</v>
       </c>
       <c r="E266" s="1">
         <v>0</v>
@@ -10242,7 +10242,7 @@
         <v>704</v>
       </c>
       <c r="C267" s="1" t="s">
-        <v>740</v>
+        <v>784</v>
       </c>
       <c r="E267" s="1">
         <v>0</v>
@@ -10277,7 +10277,7 @@
         <v>705</v>
       </c>
       <c r="C268" s="1" t="s">
-        <v>741</v>
+        <v>785</v>
       </c>
       <c r="E268" s="1">
         <v>0</v>
@@ -10312,7 +10312,7 @@
         <v>706</v>
       </c>
       <c r="C269" s="1" t="s">
-        <v>744</v>
+        <v>783</v>
       </c>
       <c r="E269" s="1">
         <v>0</v>
@@ -10344,10 +10344,10 @@
         <v>3091</v>
       </c>
       <c r="B270" s="1" t="s">
-        <v>743</v>
+        <v>737</v>
       </c>
       <c r="C270" s="1" t="s">
-        <v>745</v>
+        <v>738</v>
       </c>
       <c r="E270" s="1">
         <v>1</v>
@@ -10382,7 +10382,7 @@
         <v>717</v>
       </c>
       <c r="C271" s="1" t="s">
-        <v>749</v>
+        <v>742</v>
       </c>
       <c r="E271" s="1">
         <v>0</v>
@@ -10396,7 +10396,7 @@
         <v>735</v>
       </c>
       <c r="C272" s="1" t="s">
-        <v>742</v>
+        <v>736</v>
       </c>
       <c r="E272" s="1">
         <v>0</v>
@@ -10407,10 +10407,10 @@
         <v>3094</v>
       </c>
       <c r="B273" s="1" t="s">
-        <v>751</v>
+        <v>744</v>
       </c>
       <c r="C273" s="1" t="s">
-        <v>752</v>
+        <v>745</v>
       </c>
       <c r="E273" s="1">
         <v>2</v>
@@ -10424,10 +10424,10 @@
         <v>3095</v>
       </c>
       <c r="B274" s="1" t="s">
-        <v>775</v>
+        <v>768</v>
       </c>
       <c r="C274" s="1" t="s">
-        <v>776</v>
+        <v>769</v>
       </c>
       <c r="E274" s="1">
         <v>2</v>
@@ -10459,10 +10459,10 @@
         <v>3096</v>
       </c>
       <c r="B275" s="1" t="s">
-        <v>777</v>
+        <v>770</v>
       </c>
       <c r="C275" s="1" t="s">
-        <v>778</v>
+        <v>771</v>
       </c>
       <c r="E275" s="1">
         <v>0</v>

--- a/data/zh-cn/talents.xlsx
+++ b/data/zh-cn/talents.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jiayuankevinguo/Desktop/life-final/data/zh-cn/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EADE65DA-D425-B248-9728-66C34C1D7C78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C7C8757-08C8-F245-A8E1-8347C61DD4E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -221,7 +221,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="988" uniqueCount="793">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="991" uniqueCount="791">
   <si>
     <t>序号</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -2566,12 +2566,6 @@
   </si>
   <si>
     <t>全属性+5，但你随时会死</t>
-  </si>
-  <si>
-    <t>撑地</t>
-  </si>
-  <si>
-    <t>恭喜你，可以撑地了！</t>
   </si>
   <si>
     <t>阶级</t>
@@ -3291,13 +3285,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BJ276"/>
+  <dimension ref="A1:BJ275"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="81" zoomScaleNormal="10" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="D167" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="D184" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="N273" sqref="N273"/>
+      <selection pane="bottomRight" activeCell="H192" sqref="H192"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="25.5" defaultRowHeight="39.75" customHeight="1"/>
@@ -3878,7 +3872,7 @@
         <v>626</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="E12" s="1">
         <v>2</v>
@@ -3904,7 +3898,7 @@
         <v>131</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="E13" s="1">
         <v>0</v>
@@ -3921,7 +3915,7 @@
         <v>677</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="E14" s="1">
         <v>0</v>
@@ -3944,7 +3938,7 @@
         <v>459</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="E15" s="1">
         <v>0</v>
@@ -3967,7 +3961,7 @@
         <v>652</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="E16" s="1">
         <v>2</v>
@@ -4002,7 +3996,7 @@
         <v>132</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="E17" s="1">
         <v>1</v>
@@ -4036,7 +4030,7 @@
         <v>678</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
       <c r="E19" s="1">
         <v>0</v>
@@ -4301,7 +4295,7 @@
         <v>653</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="E31" s="1">
         <v>1</v>
@@ -4398,7 +4392,7 @@
         <v>-10</v>
       </c>
       <c r="AV35" s="6" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
       <c r="AW35" s="6"/>
       <c r="AX35" s="6"/>
@@ -4502,10 +4496,10 @@
         <v>49</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="E41" s="1">
         <v>2</v>
@@ -5079,7 +5073,7 @@
         <v>609</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="D68" s="1" t="s">
         <v>513</v>
@@ -5171,7 +5165,7 @@
         <v>80</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="C72" s="1" t="s">
         <v>444</v>
@@ -5194,7 +5188,7 @@
         <v>81</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="C73" s="1" t="s">
         <v>681</v>
@@ -5211,7 +5205,7 @@
         <v>82</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
       <c r="C74" s="1" t="s">
         <v>590</v>
@@ -5268,7 +5262,7 @@
         <v>85</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="C77" s="1" t="s">
         <v>426</v>
@@ -5291,7 +5285,7 @@
         <v>86</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="C78" s="1" t="s">
         <v>446</v>
@@ -5314,7 +5308,7 @@
         <v>87</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="C79" s="1" t="s">
         <v>447</v>
@@ -5406,7 +5400,7 @@
         <v>91</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="C83" s="1" t="s">
         <v>448</v>
@@ -5441,7 +5435,7 @@
         <v>474</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="D84" s="1" t="s">
         <v>215</v>
@@ -5473,7 +5467,7 @@
         <v>475</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
       <c r="D85" s="1" t="s">
         <v>215</v>
@@ -6064,10 +6058,10 @@
         <v>2</v>
       </c>
       <c r="AV106" s="6" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
       <c r="AW106" s="6" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
       <c r="AX106" s="6"/>
     </row>
@@ -6079,19 +6073,19 @@
         <v>235</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
       <c r="E107" s="1">
         <v>1</v>
       </c>
       <c r="AV107" s="6" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
       <c r="AW107" s="6" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
       <c r="AX107" s="6"/>
     </row>
@@ -6110,7 +6104,7 @@
       </c>
       <c r="AV108" s="6"/>
       <c r="AW108" s="6" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
       <c r="AX108" s="6"/>
     </row>
@@ -6307,7 +6301,7 @@
         <v>127</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="C119" s="1" t="s">
         <v>684</v>
@@ -6378,7 +6372,7 @@
         <v>289</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="E123" s="1">
         <v>0</v>
@@ -6430,7 +6424,7 @@
         <v>664</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="E125" s="1">
         <v>0</v>
@@ -6481,7 +6475,7 @@
         <v>356</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="E128" s="1">
         <v>0</v>
@@ -6562,7 +6556,7 @@
         <v>306</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="C133" s="1" t="s">
         <v>307</v>
@@ -6570,9 +6564,21 @@
       <c r="E133" s="1">
         <v>2</v>
       </c>
-      <c r="AV133" s="6"/>
-      <c r="AW133" s="6"/>
-      <c r="AX133" s="6"/>
+      <c r="AV133" s="6">
+        <v>3008</v>
+      </c>
+      <c r="AW133" s="6">
+        <v>3009</v>
+      </c>
+      <c r="AX133" s="6">
+        <v>3010</v>
+      </c>
+      <c r="AY133" s="1">
+        <v>3012</v>
+      </c>
+      <c r="AZ133" s="1">
+        <v>3095</v>
+      </c>
     </row>
     <row r="134" spans="1:55" ht="39.75" customHeight="1">
       <c r="A134" s="1">
@@ -6613,10 +6619,10 @@
         <v>1134</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="E136" s="1">
         <v>2</v>
@@ -6998,7 +7004,7 @@
         <v>3</v>
       </c>
       <c r="AV149" s="6" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
       <c r="AW149" s="6"/>
       <c r="AX149" s="6"/>
@@ -8203,7 +8209,7 @@
         <v>685</v>
       </c>
       <c r="C191" s="1" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="E191" s="1">
         <v>0</v>
@@ -8231,7 +8237,7 @@
       <c r="AW192" s="6"/>
       <c r="AX192" s="6"/>
     </row>
-    <row r="193" spans="1:53" ht="39.75" customHeight="1">
+    <row r="193" spans="1:54" ht="39.75" customHeight="1">
       <c r="A193" s="1">
         <v>3007</v>
       </c>
@@ -8239,7 +8245,7 @@
         <v>521</v>
       </c>
       <c r="C193" s="1" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="E193" s="1">
         <v>0</v>
@@ -8248,7 +8254,7 @@
       <c r="AW193" s="6"/>
       <c r="AX193" s="6"/>
     </row>
-    <row r="194" spans="1:53" ht="39.75" customHeight="1">
+    <row r="194" spans="1:54" ht="39.75" customHeight="1">
       <c r="A194" s="1">
         <v>3008</v>
       </c>
@@ -8268,18 +8274,21 @@
         <v>595</v>
       </c>
       <c r="AX194" s="6" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
       <c r="AY194" s="1">
         <v>3095</v>
       </c>
-    </row>
-    <row r="195" spans="1:53" ht="39.75" customHeight="1">
+      <c r="AZ194" s="1" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="195" spans="1:54" ht="39.75" customHeight="1">
       <c r="A195" s="1">
         <v>3009</v>
       </c>
       <c r="B195" s="1" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="C195" s="1" t="s">
         <v>524</v>
@@ -8294,13 +8303,16 @@
         <v>595</v>
       </c>
       <c r="AX195" s="6" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
       <c r="AY195" s="1">
         <v>3095</v>
       </c>
-    </row>
-    <row r="196" spans="1:53" ht="39.75" customHeight="1">
+      <c r="AZ195" s="1" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="196" spans="1:54" ht="39.75" customHeight="1">
       <c r="A196" s="1">
         <v>3010</v>
       </c>
@@ -8320,18 +8332,21 @@
         <v>593</v>
       </c>
       <c r="AX196" s="6" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
       <c r="AY196" s="1">
         <v>3095</v>
       </c>
-    </row>
-    <row r="197" spans="1:53" ht="39.75" customHeight="1">
+      <c r="AZ196" s="1" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="197" spans="1:54" ht="39.75" customHeight="1">
       <c r="A197" s="1">
         <v>3011</v>
       </c>
       <c r="B197" s="1" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="C197" s="1" t="s">
         <v>688</v>
@@ -8343,7 +8358,7 @@
       <c r="AW197" s="6"/>
       <c r="AX197" s="6"/>
     </row>
-    <row r="198" spans="1:53" ht="39.75" customHeight="1">
+    <row r="198" spans="1:54" ht="39.75" customHeight="1">
       <c r="A198" s="1">
         <v>3012</v>
       </c>
@@ -8351,7 +8366,7 @@
         <v>525</v>
       </c>
       <c r="C198" s="1" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
       <c r="E198" s="1">
         <v>2</v>
@@ -8374,8 +8389,11 @@
       <c r="BA198" s="1">
         <v>1014</v>
       </c>
-    </row>
-    <row r="199" spans="1:53" ht="39.75" customHeight="1">
+      <c r="BB198" s="1" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="199" spans="1:54" ht="39.75" customHeight="1">
       <c r="A199" s="1">
         <v>3013</v>
       </c>
@@ -8410,7 +8428,7 @@
       <c r="AW199" s="6"/>
       <c r="AX199" s="6"/>
     </row>
-    <row r="200" spans="1:53" ht="39.75" customHeight="1">
+    <row r="200" spans="1:54" ht="39.75" customHeight="1">
       <c r="A200" s="1">
         <v>3014</v>
       </c>
@@ -8436,13 +8454,13 @@
         <v>651</v>
       </c>
       <c r="AX200" s="6" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
       <c r="AY200" s="1">
         <v>3004</v>
       </c>
     </row>
-    <row r="201" spans="1:53" ht="39.75" customHeight="1">
+    <row r="201" spans="1:54" ht="39.75" customHeight="1">
       <c r="A201" s="1">
         <v>3015</v>
       </c>
@@ -8461,7 +8479,7 @@
       <c r="AW201" s="6"/>
       <c r="AX201" s="6"/>
     </row>
-    <row r="202" spans="1:53" ht="39.75" customHeight="1">
+    <row r="202" spans="1:54" ht="39.75" customHeight="1">
       <c r="A202" s="1">
         <v>3016</v>
       </c>
@@ -8482,7 +8500,7 @@
       </c>
       <c r="AX202" s="6"/>
     </row>
-    <row r="203" spans="1:53" ht="39.75" customHeight="1">
+    <row r="203" spans="1:54" ht="39.75" customHeight="1">
       <c r="A203" s="1">
         <v>3017</v>
       </c>
@@ -8514,26 +8532,26 @@
       <c r="AW203" s="6"/>
       <c r="AX203" s="6"/>
     </row>
-    <row r="204" spans="1:53" ht="39.75" customHeight="1">
+    <row r="204" spans="1:54" ht="39.75" customHeight="1">
       <c r="A204" s="1">
         <v>3018</v>
       </c>
       <c r="B204" s="1" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
       <c r="C204" s="1" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
       <c r="E204" s="1">
         <v>4</v>
       </c>
       <c r="AV204" s="6"/>
       <c r="AW204" s="6" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
       <c r="AX204" s="6"/>
     </row>
-    <row r="205" spans="1:53" ht="39.75" customHeight="1">
+    <row r="205" spans="1:54" ht="39.75" customHeight="1">
       <c r="A205" s="1">
         <v>3019</v>
       </c>
@@ -8553,7 +8571,7 @@
       <c r="AW205" s="6"/>
       <c r="AX205" s="6"/>
     </row>
-    <row r="206" spans="1:53" ht="39.75" customHeight="1">
+    <row r="206" spans="1:54" ht="39.75" customHeight="1">
       <c r="A206" s="1">
         <v>3020</v>
       </c>
@@ -8581,7 +8599,7 @@
       <c r="AW206" s="6"/>
       <c r="AX206" s="6"/>
     </row>
-    <row r="207" spans="1:53" ht="39.75" customHeight="1">
+    <row r="207" spans="1:54" ht="39.75" customHeight="1">
       <c r="A207" s="1">
         <v>3021</v>
       </c>
@@ -8609,7 +8627,7 @@
       <c r="AW207" s="6"/>
       <c r="AX207" s="6"/>
     </row>
-    <row r="208" spans="1:53" ht="39.75" customHeight="1">
+    <row r="208" spans="1:54" ht="39.75" customHeight="1">
       <c r="A208" s="1">
         <v>3022</v>
       </c>
@@ -8819,7 +8837,7 @@
         <v>547</v>
       </c>
       <c r="C216" s="1" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="E216" s="1">
         <v>0</v>
@@ -8839,7 +8857,7 @@
         <v>676</v>
       </c>
       <c r="C217" s="1" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="E217" s="1">
         <v>1</v>
@@ -8850,16 +8868,19 @@
     </row>
     <row r="218" spans="1:50" ht="39.75" customHeight="1">
       <c r="A218" s="1">
-        <v>3032</v>
+        <v>3033</v>
       </c>
       <c r="B218" s="1" t="s">
-        <v>690</v>
+        <v>751</v>
       </c>
       <c r="C218" s="1" t="s">
-        <v>691</v>
+        <v>755</v>
       </c>
       <c r="E218" s="1">
-        <v>3</v>
+        <v>0</v>
+      </c>
+      <c r="J218" s="1">
+        <v>1</v>
       </c>
       <c r="AV218" s="6"/>
       <c r="AW218" s="6"/>
@@ -8867,16 +8888,19 @@
     </row>
     <row r="219" spans="1:50" ht="39.75" customHeight="1">
       <c r="A219" s="1">
-        <v>3033</v>
+        <v>3034</v>
       </c>
       <c r="B219" s="1" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="C219" s="1" t="s">
-        <v>757</v>
+        <v>754</v>
       </c>
       <c r="E219" s="1">
         <v>0</v>
+      </c>
+      <c r="L219" s="1">
+        <v>1</v>
       </c>
       <c r="AV219" s="6"/>
       <c r="AW219" s="6"/>
@@ -8884,16 +8908,19 @@
     </row>
     <row r="220" spans="1:50" ht="39.75" customHeight="1">
       <c r="A220" s="1">
-        <v>3034</v>
+        <v>3035</v>
       </c>
       <c r="B220" s="1" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="C220" s="1" t="s">
-        <v>756</v>
+        <v>750</v>
       </c>
       <c r="E220" s="1">
         <v>0</v>
+      </c>
+      <c r="K220" s="1">
+        <v>1</v>
       </c>
       <c r="AV220" s="6"/>
       <c r="AW220" s="6"/>
@@ -8901,16 +8928,16 @@
     </row>
     <row r="221" spans="1:50" ht="39.75" customHeight="1">
       <c r="A221" s="1">
-        <v>3035</v>
+        <v>3037</v>
       </c>
       <c r="B221" s="1" t="s">
-        <v>755</v>
+        <v>565</v>
       </c>
       <c r="C221" s="1" t="s">
-        <v>752</v>
+        <v>564</v>
       </c>
       <c r="E221" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AV221" s="6"/>
       <c r="AW221" s="6"/>
@@ -8918,16 +8945,16 @@
     </row>
     <row r="222" spans="1:50" ht="39.75" customHeight="1">
       <c r="A222" s="1">
-        <v>3037</v>
+        <v>3039</v>
       </c>
       <c r="B222" s="1" t="s">
-        <v>565</v>
+        <v>674</v>
       </c>
       <c r="C222" s="1" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
       <c r="E222" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AV222" s="6"/>
       <c r="AW222" s="6"/>
@@ -8935,16 +8962,16 @@
     </row>
     <row r="223" spans="1:50" ht="39.75" customHeight="1">
       <c r="A223" s="1">
-        <v>3039</v>
+        <v>3040</v>
       </c>
       <c r="B223" s="1" t="s">
-        <v>674</v>
+        <v>568</v>
       </c>
       <c r="C223" s="1" t="s">
-        <v>567</v>
+        <v>569</v>
       </c>
       <c r="E223" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AV223" s="6"/>
       <c r="AW223" s="6"/>
@@ -8952,13 +8979,13 @@
     </row>
     <row r="224" spans="1:50" ht="39.75" customHeight="1">
       <c r="A224" s="1">
-        <v>3040</v>
+        <v>3041</v>
       </c>
       <c r="B224" s="1" t="s">
-        <v>568</v>
+        <v>736</v>
       </c>
       <c r="C224" s="1" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="E224" s="1">
         <v>0</v>
@@ -8969,13 +8996,13 @@
     </row>
     <row r="225" spans="1:58" ht="39.75" customHeight="1">
       <c r="A225" s="1">
-        <v>3041</v>
+        <v>3042</v>
       </c>
       <c r="B225" s="1" t="s">
-        <v>738</v>
+        <v>630</v>
       </c>
       <c r="C225" s="1" t="s">
-        <v>570</v>
+        <v>631</v>
       </c>
       <c r="E225" s="1">
         <v>0</v>
@@ -8986,16 +9013,19 @@
     </row>
     <row r="226" spans="1:58" ht="39.75" customHeight="1">
       <c r="A226" s="1">
+        <v>3043</v>
+      </c>
+      <c r="B226" s="1" t="s">
+        <v>629</v>
+      </c>
+      <c r="C226" s="9" t="s">
+        <v>756</v>
+      </c>
+      <c r="E226" s="1">
+        <v>2</v>
+      </c>
+      <c r="O226" s="1">
         <v>3042</v>
-      </c>
-      <c r="B226" s="1" t="s">
-        <v>630</v>
-      </c>
-      <c r="C226" s="1" t="s">
-        <v>631</v>
-      </c>
-      <c r="E226" s="1">
-        <v>0</v>
       </c>
       <c r="AV226" s="6"/>
       <c r="AW226" s="6"/>
@@ -9003,39 +9033,66 @@
     </row>
     <row r="227" spans="1:58" ht="39.75" customHeight="1">
       <c r="A227" s="1">
-        <v>3043</v>
+        <v>3044</v>
       </c>
       <c r="B227" s="1" t="s">
-        <v>629</v>
-      </c>
-      <c r="C227" s="9" t="s">
-        <v>758</v>
+        <v>579</v>
+      </c>
+      <c r="C227" s="1" t="s">
+        <v>641</v>
       </c>
       <c r="E227" s="1">
-        <v>2</v>
-      </c>
-      <c r="O227" s="1">
-        <v>3042</v>
-      </c>
-      <c r="AV227" s="6"/>
-      <c r="AW227" s="6"/>
-      <c r="AX227" s="6"/>
+        <v>0</v>
+      </c>
+      <c r="AV227" s="1">
+        <v>3045</v>
+      </c>
+      <c r="AW227" s="1">
+        <v>3046</v>
+      </c>
+      <c r="AX227" s="1">
+        <v>3047</v>
+      </c>
+      <c r="AY227" s="1">
+        <v>3048</v>
+      </c>
+      <c r="AZ227" s="1">
+        <v>3049</v>
+      </c>
+      <c r="BA227" s="1">
+        <v>3050</v>
+      </c>
+      <c r="BB227" s="1">
+        <v>3051</v>
+      </c>
+      <c r="BC227" s="1">
+        <v>3052</v>
+      </c>
+      <c r="BD227" s="1">
+        <v>3053</v>
+      </c>
+      <c r="BE227" s="1">
+        <v>3054</v>
+      </c>
+      <c r="BF227" s="1">
+        <v>3055</v>
+      </c>
     </row>
     <row r="228" spans="1:58" ht="39.75" customHeight="1">
       <c r="A228" s="1">
+        <v>3045</v>
+      </c>
+      <c r="B228" s="1" t="s">
+        <v>571</v>
+      </c>
+      <c r="C228" s="1" t="s">
+        <v>640</v>
+      </c>
+      <c r="E228" s="1">
+        <v>0</v>
+      </c>
+      <c r="AV228" s="1">
         <v>3044</v>
-      </c>
-      <c r="B228" s="1" t="s">
-        <v>579</v>
-      </c>
-      <c r="C228" s="1" t="s">
-        <v>641</v>
-      </c>
-      <c r="E228" s="1">
-        <v>0</v>
-      </c>
-      <c r="AV228" s="1">
-        <v>3045</v>
       </c>
       <c r="AW228" s="1">
         <v>3046</v>
@@ -9070,13 +9127,13 @@
     </row>
     <row r="229" spans="1:58" ht="39.75" customHeight="1">
       <c r="A229" s="1">
-        <v>3045</v>
+        <v>3046</v>
       </c>
       <c r="B229" s="1" t="s">
-        <v>571</v>
+        <v>581</v>
       </c>
       <c r="C229" s="1" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="E229" s="1">
         <v>0</v>
@@ -9085,7 +9142,7 @@
         <v>3044</v>
       </c>
       <c r="AW229" s="1">
-        <v>3046</v>
+        <v>3045</v>
       </c>
       <c r="AX229" s="1">
         <v>3047</v>
@@ -9117,13 +9174,13 @@
     </row>
     <row r="230" spans="1:58" ht="39.75" customHeight="1">
       <c r="A230" s="1">
-        <v>3046</v>
+        <v>3047</v>
       </c>
       <c r="B230" s="1" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="C230" s="1" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="E230" s="1">
         <v>0</v>
@@ -9135,7 +9192,7 @@
         <v>3045</v>
       </c>
       <c r="AX230" s="1">
-        <v>3047</v>
+        <v>3046</v>
       </c>
       <c r="AY230" s="1">
         <v>3048</v>
@@ -9164,13 +9221,13 @@
     </row>
     <row r="231" spans="1:58" ht="39.75" customHeight="1">
       <c r="A231" s="1">
-        <v>3047</v>
+        <v>3048</v>
       </c>
       <c r="B231" s="1" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="C231" s="1" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="E231" s="1">
         <v>0</v>
@@ -9185,7 +9242,7 @@
         <v>3046</v>
       </c>
       <c r="AY231" s="1">
-        <v>3048</v>
+        <v>3047</v>
       </c>
       <c r="AZ231" s="1">
         <v>3049</v>
@@ -9211,13 +9268,13 @@
     </row>
     <row r="232" spans="1:58" ht="39.75" customHeight="1">
       <c r="A232" s="1">
-        <v>3048</v>
+        <v>3049</v>
       </c>
       <c r="B232" s="1" t="s">
-        <v>578</v>
+        <v>585</v>
       </c>
       <c r="C232" s="1" t="s">
-        <v>637</v>
+        <v>643</v>
       </c>
       <c r="E232" s="1">
         <v>0</v>
@@ -9235,7 +9292,7 @@
         <v>3047</v>
       </c>
       <c r="AZ232" s="1">
-        <v>3049</v>
+        <v>3048</v>
       </c>
       <c r="BA232" s="1">
         <v>3050</v>
@@ -9258,13 +9315,13 @@
     </row>
     <row r="233" spans="1:58" ht="39.75" customHeight="1">
       <c r="A233" s="1">
-        <v>3049</v>
+        <v>3050</v>
       </c>
       <c r="B233" s="1" t="s">
-        <v>585</v>
+        <v>576</v>
       </c>
       <c r="C233" s="1" t="s">
-        <v>643</v>
+        <v>636</v>
       </c>
       <c r="E233" s="1">
         <v>0</v>
@@ -9285,7 +9342,7 @@
         <v>3048</v>
       </c>
       <c r="BA233" s="1">
-        <v>3050</v>
+        <v>3049</v>
       </c>
       <c r="BB233" s="1">
         <v>3051</v>
@@ -9305,13 +9362,13 @@
     </row>
     <row r="234" spans="1:58" ht="39.75" customHeight="1">
       <c r="A234" s="1">
-        <v>3050</v>
+        <v>3051</v>
       </c>
       <c r="B234" s="1" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="C234" s="1" t="s">
-        <v>636</v>
+        <v>642</v>
       </c>
       <c r="E234" s="1">
         <v>0</v>
@@ -9335,7 +9392,7 @@
         <v>3049</v>
       </c>
       <c r="BB234" s="1">
-        <v>3051</v>
+        <v>3050</v>
       </c>
       <c r="BC234" s="1">
         <v>3052</v>
@@ -9352,13 +9409,13 @@
     </row>
     <row r="235" spans="1:58" ht="39.75" customHeight="1">
       <c r="A235" s="1">
-        <v>3051</v>
+        <v>3052</v>
       </c>
       <c r="B235" s="1" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="C235" s="1" t="s">
-        <v>642</v>
+        <v>634</v>
       </c>
       <c r="E235" s="1">
         <v>0</v>
@@ -9385,7 +9442,7 @@
         <v>3050</v>
       </c>
       <c r="BC235" s="1">
-        <v>3052</v>
+        <v>3051</v>
       </c>
       <c r="BD235" s="1">
         <v>3053</v>
@@ -9399,13 +9456,13 @@
     </row>
     <row r="236" spans="1:58" ht="39.75" customHeight="1">
       <c r="A236" s="1">
-        <v>3052</v>
+        <v>3053</v>
       </c>
       <c r="B236" s="1" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C236" s="1" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="E236" s="1">
         <v>0</v>
@@ -9435,7 +9492,7 @@
         <v>3051</v>
       </c>
       <c r="BD236" s="1">
-        <v>3053</v>
+        <v>3052</v>
       </c>
       <c r="BE236" s="1">
         <v>3054</v>
@@ -9446,13 +9503,13 @@
     </row>
     <row r="237" spans="1:58" ht="39.75" customHeight="1">
       <c r="A237" s="1">
-        <v>3053</v>
+        <v>3054</v>
       </c>
       <c r="B237" s="1" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="C237" s="1" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="E237" s="1">
         <v>0</v>
@@ -9485,7 +9542,7 @@
         <v>3052</v>
       </c>
       <c r="BE237" s="1">
-        <v>3054</v>
+        <v>3053</v>
       </c>
       <c r="BF237" s="1">
         <v>3055</v>
@@ -9493,13 +9550,13 @@
     </row>
     <row r="238" spans="1:58" ht="39.75" customHeight="1">
       <c r="A238" s="1">
-        <v>3054</v>
+        <v>3055</v>
       </c>
       <c r="B238" s="1" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C238" s="1" t="s">
-        <v>632</v>
+        <v>635</v>
       </c>
       <c r="E238" s="1">
         <v>0</v>
@@ -9535,71 +9592,50 @@
         <v>3053</v>
       </c>
       <c r="BF238" s="1">
-        <v>3055</v>
+        <v>3054</v>
       </c>
     </row>
     <row r="239" spans="1:58" ht="39.75" customHeight="1">
       <c r="A239" s="1">
-        <v>3055</v>
+        <v>3056</v>
       </c>
       <c r="B239" s="1" t="s">
-        <v>572</v>
+        <v>690</v>
       </c>
       <c r="C239" s="1" t="s">
-        <v>635</v>
+        <v>644</v>
       </c>
       <c r="E239" s="1">
         <v>0</v>
       </c>
       <c r="AV239" s="1">
-        <v>3044</v>
+        <v>3057</v>
       </c>
       <c r="AW239" s="1">
-        <v>3045</v>
+        <v>3058</v>
       </c>
       <c r="AX239" s="1">
-        <v>3046</v>
+        <v>3059</v>
       </c>
       <c r="AY239" s="1">
-        <v>3047</v>
-      </c>
-      <c r="AZ239" s="1">
-        <v>3048</v>
-      </c>
-      <c r="BA239" s="1">
-        <v>3049</v>
-      </c>
-      <c r="BB239" s="1">
-        <v>3050</v>
-      </c>
-      <c r="BC239" s="1">
-        <v>3051</v>
-      </c>
-      <c r="BD239" s="1">
-        <v>3052</v>
-      </c>
-      <c r="BE239" s="1">
-        <v>3053</v>
-      </c>
-      <c r="BF239" s="1">
-        <v>3054</v>
+        <v>3060</v>
       </c>
     </row>
     <row r="240" spans="1:58" ht="39.75" customHeight="1">
       <c r="A240" s="1">
+        <v>3057</v>
+      </c>
+      <c r="B240" s="1" t="s">
+        <v>582</v>
+      </c>
+      <c r="C240" s="1" t="s">
+        <v>645</v>
+      </c>
+      <c r="E240" s="1">
+        <v>0</v>
+      </c>
+      <c r="AV240" s="1">
         <v>3056</v>
-      </c>
-      <c r="B240" s="1" t="s">
-        <v>692</v>
-      </c>
-      <c r="C240" s="1" t="s">
-        <v>644</v>
-      </c>
-      <c r="E240" s="1">
-        <v>0</v>
-      </c>
-      <c r="AV240" s="1">
-        <v>3057</v>
       </c>
       <c r="AW240" s="1">
         <v>3058</v>
@@ -9613,13 +9649,13 @@
     </row>
     <row r="241" spans="1:52" ht="39.75" customHeight="1">
       <c r="A241" s="1">
-        <v>3057</v>
+        <v>3058</v>
       </c>
       <c r="B241" s="1" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="C241" s="1" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="E241" s="1">
         <v>0</v>
@@ -9628,7 +9664,7 @@
         <v>3056</v>
       </c>
       <c r="AW241" s="1">
-        <v>3058</v>
+        <v>3057</v>
       </c>
       <c r="AX241" s="1">
         <v>3059</v>
@@ -9639,13 +9675,13 @@
     </row>
     <row r="242" spans="1:52" ht="39.75" customHeight="1">
       <c r="A242" s="1">
-        <v>3058</v>
+        <v>3059</v>
       </c>
       <c r="B242" s="1" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="C242" s="1" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="E242" s="1">
         <v>0</v>
@@ -9657,7 +9693,7 @@
         <v>3057</v>
       </c>
       <c r="AX242" s="1">
-        <v>3059</v>
+        <v>3058</v>
       </c>
       <c r="AY242" s="1">
         <v>3060</v>
@@ -9665,13 +9701,13 @@
     </row>
     <row r="243" spans="1:52" ht="39.75" customHeight="1">
       <c r="A243" s="1">
-        <v>3059</v>
+        <v>3060</v>
       </c>
       <c r="B243" s="1" t="s">
-        <v>584</v>
+        <v>566</v>
       </c>
       <c r="C243" s="1" t="s">
-        <v>647</v>
+        <v>741</v>
       </c>
       <c r="E243" s="1">
         <v>0</v>
@@ -9686,97 +9722,88 @@
         <v>3058</v>
       </c>
       <c r="AY243" s="1">
-        <v>3060</v>
+        <v>3059</v>
       </c>
     </row>
     <row r="244" spans="1:52" ht="39.75" customHeight="1">
       <c r="A244" s="1">
-        <v>3060</v>
+        <v>3061</v>
       </c>
       <c r="B244" s="1" t="s">
-        <v>566</v>
+        <v>597</v>
       </c>
       <c r="C244" s="1" t="s">
-        <v>743</v>
+        <v>586</v>
       </c>
       <c r="E244" s="1">
-        <v>0</v>
-      </c>
-      <c r="AV244" s="1">
-        <v>3056</v>
-      </c>
-      <c r="AW244" s="1">
-        <v>3057</v>
-      </c>
-      <c r="AX244" s="1">
-        <v>3058</v>
-      </c>
-      <c r="AY244" s="1">
-        <v>3059</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="G244" s="1">
+        <v>4</v>
+      </c>
+      <c r="H244" s="1">
+        <v>-4</v>
+      </c>
+      <c r="AV244" s="6"/>
+      <c r="AW244" s="6"/>
+      <c r="AX244" s="6"/>
     </row>
     <row r="245" spans="1:52" ht="39.75" customHeight="1">
       <c r="A245" s="1">
-        <v>3061</v>
+        <v>3062</v>
       </c>
       <c r="B245" s="1" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="C245" s="1" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="E245" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G245" s="1">
+        <v>-4</v>
+      </c>
+      <c r="H245" s="1">
         <v>4</v>
       </c>
-      <c r="H245" s="1">
-        <v>-4</v>
-      </c>
-      <c r="AV245" s="6"/>
-      <c r="AW245" s="6"/>
+      <c r="AV245" s="1">
+        <v>1122</v>
+      </c>
+      <c r="AW245" s="1">
+        <v>3014</v>
+      </c>
       <c r="AX245" s="6"/>
     </row>
     <row r="246" spans="1:52" ht="39.75" customHeight="1">
       <c r="A246" s="1">
-        <v>3062</v>
+        <v>3063</v>
       </c>
       <c r="B246" s="1" t="s">
-        <v>598</v>
+        <v>508</v>
       </c>
       <c r="C246" s="1" t="s">
-        <v>587</v>
+        <v>749</v>
       </c>
       <c r="E246" s="1">
         <v>0</v>
       </c>
-      <c r="G246" s="1">
-        <v>-4</v>
-      </c>
-      <c r="H246" s="1">
-        <v>4</v>
-      </c>
-      <c r="AV246" s="1">
-        <v>1122</v>
-      </c>
-      <c r="AW246" s="1">
-        <v>3014</v>
-      </c>
+      <c r="AV246" s="6"/>
+      <c r="AW246" s="6"/>
       <c r="AX246" s="6"/>
     </row>
     <row r="247" spans="1:52" ht="39.75" customHeight="1">
       <c r="A247" s="1">
-        <v>3063</v>
+        <v>3064</v>
       </c>
       <c r="B247" s="1" t="s">
-        <v>508</v>
+        <v>599</v>
       </c>
       <c r="C247" s="1" t="s">
-        <v>751</v>
+        <v>734</v>
       </c>
       <c r="E247" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AV247" s="6"/>
       <c r="AW247" s="6"/>
@@ -9784,121 +9811,130 @@
     </row>
     <row r="248" spans="1:52" ht="39.75" customHeight="1">
       <c r="A248" s="1">
-        <v>3064</v>
+        <v>3065</v>
       </c>
       <c r="B248" s="1" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="C248" s="1" t="s">
-        <v>736</v>
+        <v>601</v>
       </c>
       <c r="E248" s="1">
-        <v>1</v>
-      </c>
-      <c r="AV248" s="6"/>
-      <c r="AW248" s="6"/>
+        <v>2</v>
+      </c>
+      <c r="O248" s="1">
+        <v>1128</v>
+      </c>
+      <c r="P248" s="1">
+        <v>3014</v>
+      </c>
+      <c r="Q248" s="1">
+        <v>3016</v>
+      </c>
+      <c r="R248" s="1">
+        <v>3017</v>
+      </c>
+      <c r="S248" s="1">
+        <v>3020</v>
+      </c>
+      <c r="T248" s="1">
+        <v>3021</v>
+      </c>
+      <c r="U248" s="1">
+        <v>3022</v>
+      </c>
+      <c r="V248" s="1">
+        <v>3023</v>
+      </c>
+      <c r="W248" s="1">
+        <v>3024</v>
+      </c>
+      <c r="X248" s="1">
+        <v>3025</v>
+      </c>
+      <c r="Y248" s="1">
+        <v>3026</v>
+      </c>
+      <c r="Z248" s="1">
+        <v>3027</v>
+      </c>
+      <c r="AA248" s="1">
+        <v>3029</v>
+      </c>
+      <c r="AB248" s="1">
+        <v>3030</v>
+      </c>
+      <c r="AC248" s="1">
+        <v>3033</v>
+      </c>
+      <c r="AD248" s="1">
+        <v>3034</v>
+      </c>
+      <c r="AE248" s="1">
+        <v>3035</v>
+      </c>
+      <c r="AF248" s="6" t="s">
+        <v>649</v>
+      </c>
+      <c r="AG248" s="1">
+        <v>3069</v>
+      </c>
+      <c r="AH248" s="6" t="s">
+        <v>650</v>
+      </c>
+      <c r="AI248" s="6"/>
+      <c r="AJ248" s="6"/>
+      <c r="AK248" s="6"/>
+      <c r="AL248" s="6"/>
+      <c r="AM248" s="6"/>
+      <c r="AV248" s="6" t="s">
+        <v>293</v>
+      </c>
+      <c r="AW248" s="6" t="s">
+        <v>651</v>
+      </c>
       <c r="AX248" s="6"/>
+      <c r="AY248" s="6"/>
+      <c r="AZ248" s="6"/>
     </row>
     <row r="249" spans="1:52" ht="39.75" customHeight="1">
       <c r="A249" s="1">
-        <v>3065</v>
+        <v>3066</v>
       </c>
       <c r="B249" s="1" t="s">
-        <v>600</v>
+        <v>602</v>
       </c>
       <c r="C249" s="1" t="s">
-        <v>601</v>
+        <v>759</v>
       </c>
       <c r="E249" s="1">
-        <v>2</v>
-      </c>
-      <c r="O249" s="1">
-        <v>1128</v>
-      </c>
-      <c r="P249" s="1">
-        <v>3014</v>
-      </c>
-      <c r="Q249" s="1">
-        <v>3016</v>
-      </c>
-      <c r="R249" s="1">
-        <v>3017</v>
-      </c>
-      <c r="S249" s="1">
-        <v>3020</v>
-      </c>
-      <c r="T249" s="1">
-        <v>3021</v>
-      </c>
-      <c r="U249" s="1">
-        <v>3022</v>
-      </c>
-      <c r="V249" s="1">
-        <v>3023</v>
-      </c>
-      <c r="W249" s="1">
-        <v>3024</v>
-      </c>
-      <c r="X249" s="1">
-        <v>3025</v>
-      </c>
-      <c r="Y249" s="1">
-        <v>3026</v>
-      </c>
-      <c r="Z249" s="1">
-        <v>3027</v>
-      </c>
-      <c r="AA249" s="1">
-        <v>3029</v>
-      </c>
-      <c r="AB249" s="1">
-        <v>3030</v>
-      </c>
-      <c r="AC249" s="1">
-        <v>3033</v>
-      </c>
-      <c r="AD249" s="1">
-        <v>3034</v>
-      </c>
-      <c r="AE249" s="1">
-        <v>3035</v>
-      </c>
-      <c r="AF249" s="6" t="s">
-        <v>649</v>
-      </c>
-      <c r="AG249" s="1">
-        <v>3069</v>
-      </c>
-      <c r="AH249" s="6" t="s">
-        <v>650</v>
-      </c>
-      <c r="AI249" s="6"/>
-      <c r="AJ249" s="6"/>
-      <c r="AK249" s="6"/>
-      <c r="AL249" s="6"/>
-      <c r="AM249" s="6"/>
-      <c r="AV249" s="6" t="s">
-        <v>293</v>
-      </c>
-      <c r="AW249" s="6" t="s">
-        <v>651</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="AV249" s="6"/>
+      <c r="AW249" s="6"/>
       <c r="AX249" s="6"/>
-      <c r="AY249" s="6"/>
-      <c r="AZ249" s="6"/>
     </row>
     <row r="250" spans="1:52" ht="39.75" customHeight="1">
       <c r="A250" s="1">
-        <v>3066</v>
+        <v>3068</v>
       </c>
       <c r="B250" s="1" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="C250" s="1" t="s">
-        <v>761</v>
+        <v>624</v>
+      </c>
+      <c r="D250" s="1" t="s">
+        <v>748</v>
       </c>
       <c r="E250" s="1">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="H250" s="1">
+        <v>1</v>
+      </c>
+      <c r="K250" s="1">
+        <v>-1</v>
       </c>
       <c r="AV250" s="6"/>
       <c r="AW250" s="6"/>
@@ -9906,16 +9942,16 @@
     </row>
     <row r="251" spans="1:52" ht="39.75" customHeight="1">
       <c r="A251" s="1">
-        <v>3068</v>
+        <v>3069</v>
       </c>
       <c r="B251" s="1" t="s">
-        <v>603</v>
+        <v>616</v>
       </c>
       <c r="C251" s="1" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="D251" s="1" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="E251" s="1">
         <v>0</v>
@@ -9923,7 +9959,7 @@
       <c r="H251" s="1">
         <v>1</v>
       </c>
-      <c r="K251" s="1">
+      <c r="L251" s="1">
         <v>-1</v>
       </c>
       <c r="AV251" s="6"/>
@@ -9932,79 +9968,70 @@
     </row>
     <row r="252" spans="1:52" ht="39.75" customHeight="1">
       <c r="A252" s="1">
-        <v>3069</v>
+        <v>3071</v>
       </c>
       <c r="B252" s="1" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="C252" s="1" t="s">
-        <v>625</v>
-      </c>
-      <c r="D252" s="1" t="s">
-        <v>750</v>
+        <v>675</v>
       </c>
       <c r="E252" s="1">
         <v>0</v>
-      </c>
-      <c r="H252" s="1">
-        <v>1</v>
-      </c>
-      <c r="L252" s="1">
-        <v>-1</v>
       </c>
       <c r="AV252" s="6"/>
       <c r="AW252" s="6"/>
-      <c r="AX252" s="6"/>
+      <c r="AX252" s="6" t="s">
+        <v>768</v>
+      </c>
     </row>
     <row r="253" spans="1:52" ht="39.75" customHeight="1">
       <c r="A253" s="1">
-        <v>3071</v>
+        <v>3072</v>
       </c>
       <c r="B253" s="1" t="s">
-        <v>617</v>
+        <v>711</v>
       </c>
       <c r="C253" s="1" t="s">
-        <v>675</v>
+        <v>781</v>
+      </c>
+      <c r="D253" s="1" t="s">
+        <v>782</v>
       </c>
       <c r="E253" s="1">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="H253" s="1">
+        <v>10</v>
+      </c>
+      <c r="I253" s="1">
+        <v>10</v>
+      </c>
+      <c r="J253" s="1">
+        <v>10</v>
+      </c>
+      <c r="K253" s="1">
+        <v>10</v>
+      </c>
+      <c r="L253" s="1">
+        <v>10</v>
       </c>
       <c r="AV253" s="6"/>
       <c r="AW253" s="6"/>
-      <c r="AX253" s="6" t="s">
-        <v>770</v>
-      </c>
+      <c r="AX253" s="6"/>
     </row>
     <row r="254" spans="1:52" ht="39.75" customHeight="1">
       <c r="A254" s="1">
-        <v>3072</v>
+        <v>3074</v>
       </c>
       <c r="B254" s="1" t="s">
-        <v>713</v>
+        <v>618</v>
       </c>
       <c r="C254" s="1" t="s">
-        <v>783</v>
-      </c>
-      <c r="D254" s="1" t="s">
-        <v>784</v>
+        <v>743</v>
       </c>
       <c r="E254" s="1">
-        <v>1</v>
-      </c>
-      <c r="H254" s="1">
-        <v>10</v>
-      </c>
-      <c r="I254" s="1">
-        <v>10</v>
-      </c>
-      <c r="J254" s="1">
-        <v>10</v>
-      </c>
-      <c r="K254" s="1">
-        <v>10</v>
-      </c>
-      <c r="L254" s="1">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AV254" s="6"/>
       <c r="AW254" s="6"/>
@@ -10012,44 +10039,44 @@
     </row>
     <row r="255" spans="1:52" ht="39.75" customHeight="1">
       <c r="A255" s="1">
-        <v>3074</v>
+        <v>3077</v>
       </c>
       <c r="B255" s="1" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="C255" s="1" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="E255" s="1">
-        <v>0</v>
-      </c>
-      <c r="AV255" s="6"/>
-      <c r="AW255" s="6"/>
-      <c r="AX255" s="6"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="256" spans="1:52" ht="39.75" customHeight="1">
       <c r="A256" s="1">
-        <v>3077</v>
+        <v>3078</v>
       </c>
       <c r="B256" s="1" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="C256" s="1" t="s">
-        <v>746</v>
+        <v>621</v>
       </c>
       <c r="E256" s="1">
         <v>1</v>
       </c>
+      <c r="AM256" s="6"/>
+      <c r="AN256" s="6"/>
+      <c r="AO256" s="6"/>
     </row>
     <row r="257" spans="1:54" ht="39.75" customHeight="1">
       <c r="A257" s="1">
-        <v>3078</v>
+        <v>3079</v>
       </c>
       <c r="B257" s="1" t="s">
-        <v>620</v>
+        <v>622</v>
       </c>
       <c r="C257" s="1" t="s">
-        <v>621</v>
+        <v>623</v>
       </c>
       <c r="E257" s="1">
         <v>1</v>
@@ -10060,16 +10087,16 @@
     </row>
     <row r="258" spans="1:54" ht="39.75" customHeight="1">
       <c r="A258" s="1">
-        <v>3079</v>
+        <v>3080</v>
       </c>
       <c r="B258" s="1" t="s">
-        <v>622</v>
+        <v>693</v>
       </c>
       <c r="C258" s="1" t="s">
-        <v>623</v>
+        <v>738</v>
       </c>
       <c r="E258" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AM258" s="6"/>
       <c r="AN258" s="6"/>
@@ -10077,30 +10104,27 @@
     </row>
     <row r="259" spans="1:54" ht="39.75" customHeight="1">
       <c r="A259" s="1">
-        <v>3080</v>
+        <v>3081</v>
       </c>
       <c r="B259" s="1" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="C259" s="1" t="s">
-        <v>740</v>
+        <v>705</v>
       </c>
       <c r="E259" s="1">
-        <v>2</v>
-      </c>
-      <c r="AM259" s="6"/>
-      <c r="AN259" s="6"/>
-      <c r="AO259" s="6"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="260" spans="1:54" ht="39.75" customHeight="1">
       <c r="A260" s="1">
-        <v>3081</v>
+        <v>3082</v>
       </c>
       <c r="B260" s="1" t="s">
-        <v>698</v>
+        <v>694</v>
       </c>
       <c r="C260" s="1" t="s">
-        <v>707</v>
+        <v>704</v>
       </c>
       <c r="E260" s="1">
         <v>0</v>
@@ -10108,10 +10132,10 @@
     </row>
     <row r="261" spans="1:54" ht="39.75" customHeight="1">
       <c r="A261" s="1">
-        <v>3082</v>
+        <v>3083</v>
       </c>
       <c r="B261" s="1" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="C261" s="1" t="s">
         <v>706</v>
@@ -10122,33 +10146,54 @@
     </row>
     <row r="262" spans="1:54" ht="39.75" customHeight="1">
       <c r="A262" s="1">
-        <v>3083</v>
+        <v>3084</v>
       </c>
       <c r="B262" s="1" t="s">
         <v>697</v>
       </c>
       <c r="C262" s="1" t="s">
-        <v>708</v>
+        <v>774</v>
       </c>
       <c r="E262" s="1">
         <v>0</v>
+      </c>
+      <c r="AV262" s="1">
+        <v>3085</v>
+      </c>
+      <c r="AW262" s="1">
+        <v>3086</v>
+      </c>
+      <c r="AX262" s="1">
+        <v>3087</v>
+      </c>
+      <c r="AY262" s="1">
+        <v>3088</v>
+      </c>
+      <c r="AZ262" s="1">
+        <v>3089</v>
+      </c>
+      <c r="BA262" s="1">
+        <v>3090</v>
+      </c>
+      <c r="BB262" s="1">
+        <v>3091</v>
       </c>
     </row>
     <row r="263" spans="1:54" ht="39.75" customHeight="1">
       <c r="A263" s="1">
+        <v>3085</v>
+      </c>
+      <c r="B263" s="1" t="s">
+        <v>698</v>
+      </c>
+      <c r="C263" s="1" t="s">
+        <v>775</v>
+      </c>
+      <c r="E263" s="1">
+        <v>0</v>
+      </c>
+      <c r="AV263" s="1">
         <v>3084</v>
-      </c>
-      <c r="B263" s="1" t="s">
-        <v>699</v>
-      </c>
-      <c r="C263" s="1" t="s">
-        <v>776</v>
-      </c>
-      <c r="E263" s="1">
-        <v>0</v>
-      </c>
-      <c r="AV263" s="1">
-        <v>3085</v>
       </c>
       <c r="AW263" s="1">
         <v>3086</v>
@@ -10171,13 +10216,13 @@
     </row>
     <row r="264" spans="1:54" ht="39.75" customHeight="1">
       <c r="A264" s="1">
-        <v>3085</v>
+        <v>3086</v>
       </c>
       <c r="B264" s="1" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="C264" s="1" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="E264" s="1">
         <v>0</v>
@@ -10186,7 +10231,7 @@
         <v>3084</v>
       </c>
       <c r="AW264" s="1">
-        <v>3086</v>
+        <v>3085</v>
       </c>
       <c r="AX264" s="1">
         <v>3087</v>
@@ -10206,13 +10251,13 @@
     </row>
     <row r="265" spans="1:54" ht="39.75" customHeight="1">
       <c r="A265" s="1">
-        <v>3086</v>
+        <v>3087</v>
       </c>
       <c r="B265" s="1" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="C265" s="1" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="E265" s="1">
         <v>0</v>
@@ -10224,7 +10269,7 @@
         <v>3085</v>
       </c>
       <c r="AX265" s="1">
-        <v>3087</v>
+        <v>3086</v>
       </c>
       <c r="AY265" s="1">
         <v>3088</v>
@@ -10241,10 +10286,10 @@
     </row>
     <row r="266" spans="1:54" ht="39.75" customHeight="1">
       <c r="A266" s="1">
-        <v>3087</v>
+        <v>3088</v>
       </c>
       <c r="B266" s="1" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="C266" s="1" t="s">
         <v>779</v>
@@ -10262,7 +10307,7 @@
         <v>3086</v>
       </c>
       <c r="AY266" s="1">
-        <v>3088</v>
+        <v>3087</v>
       </c>
       <c r="AZ266" s="1">
         <v>3089</v>
@@ -10276,13 +10321,13 @@
     </row>
     <row r="267" spans="1:54" ht="39.75" customHeight="1">
       <c r="A267" s="1">
-        <v>3088</v>
+        <v>3089</v>
       </c>
       <c r="B267" s="1" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="C267" s="1" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="E267" s="1">
         <v>0</v>
@@ -10300,7 +10345,7 @@
         <v>3087</v>
       </c>
       <c r="AZ267" s="1">
-        <v>3089</v>
+        <v>3088</v>
       </c>
       <c r="BA267" s="1">
         <v>3090</v>
@@ -10311,13 +10356,13 @@
     </row>
     <row r="268" spans="1:54" ht="39.75" customHeight="1">
       <c r="A268" s="1">
-        <v>3089</v>
+        <v>3090</v>
       </c>
       <c r="B268" s="1" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="C268" s="1" t="s">
-        <v>782</v>
+        <v>778</v>
       </c>
       <c r="E268" s="1">
         <v>0</v>
@@ -10338,7 +10383,7 @@
         <v>3088</v>
       </c>
       <c r="BA268" s="1">
-        <v>3090</v>
+        <v>3089</v>
       </c>
       <c r="BB268" s="1">
         <v>3091</v>
@@ -10346,16 +10391,16 @@
     </row>
     <row r="269" spans="1:54" ht="39.75" customHeight="1">
       <c r="A269" s="1">
-        <v>3090</v>
+        <v>3091</v>
       </c>
       <c r="B269" s="1" t="s">
-        <v>705</v>
+        <v>732</v>
       </c>
       <c r="C269" s="1" t="s">
-        <v>780</v>
+        <v>733</v>
       </c>
       <c r="E269" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AV269" s="1">
         <v>3084</v>
@@ -10376,53 +10421,32 @@
         <v>3089</v>
       </c>
       <c r="BB269" s="1">
-        <v>3091</v>
+        <v>3090</v>
       </c>
     </row>
     <row r="270" spans="1:54" ht="39.75" customHeight="1">
       <c r="A270" s="1">
-        <v>3091</v>
+        <v>3092</v>
       </c>
       <c r="B270" s="1" t="s">
-        <v>734</v>
+        <v>712</v>
       </c>
       <c r="C270" s="1" t="s">
-        <v>735</v>
+        <v>737</v>
       </c>
       <c r="E270" s="1">
-        <v>1</v>
-      </c>
-      <c r="AV270" s="1">
-        <v>3084</v>
-      </c>
-      <c r="AW270" s="1">
-        <v>3085</v>
-      </c>
-      <c r="AX270" s="1">
-        <v>3086</v>
-      </c>
-      <c r="AY270" s="1">
-        <v>3087</v>
-      </c>
-      <c r="AZ270" s="1">
-        <v>3088</v>
-      </c>
-      <c r="BA270" s="1">
-        <v>3089</v>
-      </c>
-      <c r="BB270" s="1">
-        <v>3090</v>
+        <v>0</v>
       </c>
     </row>
     <row r="271" spans="1:54" ht="39.75" customHeight="1">
       <c r="A271" s="1">
-        <v>3092</v>
+        <v>3093</v>
       </c>
       <c r="B271" s="1" t="s">
-        <v>714</v>
+        <v>730</v>
       </c>
       <c r="C271" s="1" t="s">
-        <v>739</v>
+        <v>731</v>
       </c>
       <c r="E271" s="1">
         <v>0</v>
@@ -10430,38 +10454,62 @@
     </row>
     <row r="272" spans="1:54" ht="39.75" customHeight="1">
       <c r="A272" s="1">
-        <v>3093</v>
+        <v>3094</v>
       </c>
       <c r="B272" s="1" t="s">
-        <v>732</v>
+        <v>739</v>
       </c>
       <c r="C272" s="1" t="s">
-        <v>733</v>
+        <v>740</v>
       </c>
       <c r="E272" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="273" spans="1:54" ht="39.75" customHeight="1">
+        <v>2</v>
+      </c>
+      <c r="AV272" s="1">
+        <v>3095</v>
+      </c>
+    </row>
+    <row r="273" spans="1:55" ht="39.75" customHeight="1">
       <c r="A273" s="1">
-        <v>3094</v>
+        <v>3095</v>
       </c>
       <c r="B273" s="1" t="s">
-        <v>741</v>
+        <v>763</v>
       </c>
       <c r="C273" s="1" t="s">
-        <v>742</v>
+        <v>764</v>
       </c>
       <c r="E273" s="1">
         <v>2</v>
       </c>
       <c r="AV273" s="1">
-        <v>3095</v>
-      </c>
-    </row>
-    <row r="274" spans="1:54" ht="39.75" customHeight="1">
+        <v>3094</v>
+      </c>
+      <c r="AW273" s="1">
+        <v>3012</v>
+      </c>
+      <c r="AX273" s="1">
+        <v>1048</v>
+      </c>
+      <c r="AY273" s="1">
+        <v>3008</v>
+      </c>
+      <c r="AZ273" s="1">
+        <v>3009</v>
+      </c>
+      <c r="BA273" s="1">
+        <v>3010</v>
+      </c>
+      <c r="BB273" s="1">
+        <v>3016</v>
+      </c>
+      <c r="BC273" s="1" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="274" spans="1:55" ht="39.75" customHeight="1">
       <c r="A274" s="1">
-        <v>3095</v>
+        <v>3096</v>
       </c>
       <c r="B274" s="1" t="s">
         <v>765</v>
@@ -10470,58 +10518,23 @@
         <v>766</v>
       </c>
       <c r="E274" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AV274" s="1">
-        <v>3094</v>
-      </c>
-      <c r="AW274" s="1">
-        <v>3012</v>
-      </c>
-      <c r="AX274" s="1">
-        <v>1048</v>
-      </c>
-      <c r="AY274" s="1">
-        <v>3008</v>
-      </c>
-      <c r="AZ274" s="1">
-        <v>3009</v>
-      </c>
-      <c r="BA274" s="1">
-        <v>3010</v>
-      </c>
-      <c r="BB274" s="1">
-        <v>3016</v>
-      </c>
-    </row>
-    <row r="275" spans="1:54" ht="39.75" customHeight="1">
+        <v>1106</v>
+      </c>
+    </row>
+    <row r="275" spans="1:55" ht="39.75" customHeight="1">
       <c r="A275" s="1">
-        <v>3096</v>
+        <v>3097</v>
       </c>
       <c r="B275" s="1" t="s">
-        <v>767</v>
+        <v>785</v>
       </c>
       <c r="C275" s="1" t="s">
-        <v>768</v>
+        <v>786</v>
       </c>
       <c r="E275" s="1">
-        <v>0</v>
-      </c>
-      <c r="AV275" s="1">
-        <v>1106</v>
-      </c>
-    </row>
-    <row r="276" spans="1:54" ht="39.75" customHeight="1">
-      <c r="A276" s="1">
-        <v>3097</v>
-      </c>
-      <c r="B276" s="1" t="s">
-        <v>787</v>
-      </c>
-      <c r="C276" s="1" t="s">
-        <v>788</v>
-      </c>
-      <c r="E276" s="1">
         <v>3</v>
       </c>
     </row>

--- a/data/zh-cn/talents.xlsx
+++ b/data/zh-cn/talents.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jiayuankevinguo/Desktop/life-final/data/zh-cn/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CB2E57D-708D-9A42-9E47-17C5277361D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEFA870E-9D0B-CE4B-8847-6B49C7F5DF2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3288,10 +3288,10 @@
   <dimension ref="A1:BJ275"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="81" zoomScaleNormal="10" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="D256" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="D188" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="F263" sqref="F263"/>
+      <selection pane="bottomRight" activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="25.5" defaultRowHeight="39.75" customHeight="1"/>

--- a/data/zh-cn/talents.xlsx
+++ b/data/zh-cn/talents.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jiayuankevinguo/Desktop/life-final/data/zh-cn/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B7C9D76-9F91-3A4D-8883-A315C793FBB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAD84658-9D9D-3444-875A-A3FE79488FF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3282,10 +3282,10 @@
   <dimension ref="A1:BJ274"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="81" zoomScaleNormal="10" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="D261" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="D59" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="H267" sqref="H267"/>
+      <selection pane="bottomRight" activeCell="J66" sqref="J66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="25.5" defaultRowHeight="39.75" customHeight="1"/>

--- a/data/zh-cn/talents.xlsx
+++ b/data/zh-cn/talents.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jiayuankevinguo/Desktop/life-final/data/zh-cn/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8CB154E-E076-DC40-B870-23F179058A33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9B09C69-9926-1B4C-8018-7239402C0C28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2868,7 +2868,7 @@
     <t>一封信</t>
   </si>
   <si>
-    <t>一些话</t>
+    <t>我的一些......话</t>
   </si>
 </sst>
 </file>
@@ -3291,7 +3291,7 @@
       <pane xSplit="3" ySplit="2" topLeftCell="D264" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D275" sqref="D275"/>
+      <selection pane="bottomRight" activeCell="H270" sqref="H270"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="25.5" defaultRowHeight="39.75" customHeight="1"/>

--- a/data/zh-cn/talents.xlsx
+++ b/data/zh-cn/talents.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jiayuankevinguo/Desktop/life-final/data/zh-cn/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84A0939B-8311-5F4D-A500-92AC2E3443F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15C94EBD-817F-0F40-BE4F-A827BCDF4CDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3288,10 +3288,10 @@
   <dimension ref="A1:BJ275"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="81" zoomScaleNormal="10" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="D11" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="D185" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="G14" sqref="G14"/>
+      <selection pane="bottomRight" activeCell="I193" sqref="I193"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="25.5" defaultRowHeight="39.75" customHeight="1"/>

--- a/data/zh-cn/talents.xlsx
+++ b/data/zh-cn/talents.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jiayuankevinguo/Desktop/life-final/data/zh-cn/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15509742-6255-C64D-9366-9F4E8A8B3DBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAE24938-5511-584C-AEC7-FAB42DFE4AED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2382,9 +2382,6 @@
     <t>小丑</t>
   </si>
   <si>
-    <t>你......总能博人一笑</t>
-  </si>
-  <si>
     <t>成为收尾人则必定加入Oufi协会</t>
   </si>
   <si>
@@ -2869,6 +2866,9 @@
   </si>
   <si>
     <t>初始属性-4 附带神秘小礼物</t>
+  </si>
+  <si>
+    <t>全属性+1，全属性- 1</t>
   </si>
 </sst>
 </file>
@@ -3288,10 +3288,10 @@
   <dimension ref="A1:BJ275"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="81" zoomScaleNormal="10" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="D181" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="Z121" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="F186" sqref="F186"/>
+      <selection pane="bottomRight" activeCell="AC130" sqref="AC130"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="25.5" defaultRowHeight="39.75" customHeight="1"/>
@@ -3775,7 +3775,7 @@
         <v>457</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="E7" s="1">
         <v>2</v>
@@ -3872,7 +3872,7 @@
         <v>623</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="E12" s="1">
         <v>2</v>
@@ -3898,7 +3898,7 @@
         <v>131</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="E13" s="1">
         <v>0</v>
@@ -3912,10 +3912,10 @@
         <v>22</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="E14" s="1">
         <v>0</v>
@@ -3938,7 +3938,7 @@
         <v>459</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="E15" s="1">
         <v>0</v>
@@ -3958,10 +3958,10 @@
         <v>24</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="E16" s="1">
         <v>2</v>
@@ -3986,6 +3986,9 @@
       </c>
       <c r="BB16" s="1">
         <v>3010</v>
+      </c>
+      <c r="BC16" s="1">
+        <v>3094</v>
       </c>
     </row>
     <row r="17" spans="1:51" ht="39.75" customHeight="1">
@@ -3996,7 +3999,7 @@
         <v>132</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="E17" s="1">
         <v>1</v>
@@ -4027,10 +4030,10 @@
         <v>27</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="E19" s="1">
         <v>0</v>
@@ -4292,16 +4295,16 @@
         <v>39</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="E31" s="1">
         <v>1</v>
       </c>
       <c r="AV31" s="6" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="AW31" s="6"/>
       <c r="AX31" s="6"/>
@@ -4392,7 +4395,7 @@
         <v>-10</v>
       </c>
       <c r="AV35" s="6" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="AW35" s="6"/>
       <c r="AX35" s="6"/>
@@ -4496,10 +4499,10 @@
         <v>49</v>
       </c>
       <c r="B41" s="1" t="s">
+        <v>756</v>
+      </c>
+      <c r="C41" s="1" t="s">
         <v>757</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>758</v>
       </c>
       <c r="E41" s="1">
         <v>2</v>
@@ -4530,7 +4533,7 @@
         <v>51</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>161</v>
@@ -4586,7 +4589,7 @@
         <v>164</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="E46" s="1">
         <v>0</v>
@@ -4684,7 +4687,7 @@
         <v>59</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="C51" s="1" t="s">
         <v>176</v>
@@ -4707,7 +4710,7 @@
         <v>60</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="C52" s="1" t="s">
         <v>177</v>
@@ -4730,7 +4733,7 @@
         <v>61</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="C53" s="1" t="s">
         <v>439</v>
@@ -4756,7 +4759,7 @@
         <v>62</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="C54" s="1" t="s">
         <v>440</v>
@@ -4779,7 +4782,7 @@
         <v>63</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="C55" s="1" t="s">
         <v>441</v>
@@ -5073,7 +5076,7 @@
         <v>606</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="D68" s="1" t="s">
         <v>512</v>
@@ -5165,7 +5168,7 @@
         <v>80</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="C72" s="1" t="s">
         <v>444</v>
@@ -5188,10 +5191,10 @@
         <v>81</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="E73" s="1">
         <v>0</v>
@@ -5205,7 +5208,7 @@
         <v>82</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="C74" s="1" t="s">
         <v>587</v>
@@ -5222,10 +5225,10 @@
         <v>83</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="E75" s="1">
         <v>0</v>
@@ -5262,7 +5265,7 @@
         <v>85</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="C77" s="1" t="s">
         <v>426</v>
@@ -5285,7 +5288,7 @@
         <v>86</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="C78" s="1" t="s">
         <v>446</v>
@@ -5308,7 +5311,7 @@
         <v>87</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="C79" s="1" t="s">
         <v>447</v>
@@ -5331,7 +5334,7 @@
         <v>88</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="C80" s="1" t="s">
         <v>212</v>
@@ -5354,7 +5357,7 @@
         <v>89</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="C81" s="1" t="s">
         <v>427</v>
@@ -5400,7 +5403,7 @@
         <v>91</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="C83" s="1" t="s">
         <v>448</v>
@@ -5435,7 +5438,7 @@
         <v>474</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="D84" s="1" t="s">
         <v>215</v>
@@ -5467,7 +5470,7 @@
         <v>475</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="D85" s="1" t="s">
         <v>215</v>
@@ -5514,7 +5517,7 @@
         <v>293</v>
       </c>
       <c r="AW86" s="6" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="AX86" s="6"/>
     </row>
@@ -5541,7 +5544,7 @@
         <v>293</v>
       </c>
       <c r="AW87" s="6" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="AX87" s="6"/>
     </row>
@@ -5565,7 +5568,7 @@
         <v>293</v>
       </c>
       <c r="AW88" s="6" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="AX88" s="6"/>
     </row>
@@ -5910,7 +5913,7 @@
         <v>109</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="C101" s="1" t="s">
         <v>454</v>
@@ -5962,7 +5965,7 @@
         <v>232</v>
       </c>
       <c r="D103" s="5" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="E103" s="1">
         <v>0</v>
@@ -6058,10 +6061,10 @@
         <v>2</v>
       </c>
       <c r="AV106" s="6" t="s">
+        <v>779</v>
+      </c>
+      <c r="AW106" s="6" t="s">
         <v>780</v>
-      </c>
-      <c r="AW106" s="6" t="s">
-        <v>781</v>
       </c>
       <c r="AX106" s="6"/>
     </row>
@@ -6073,19 +6076,19 @@
         <v>235</v>
       </c>
       <c r="C107" s="1" t="s">
+        <v>767</v>
+      </c>
+      <c r="D107" s="1" t="s">
         <v>768</v>
       </c>
-      <c r="D107" s="1" t="s">
-        <v>769</v>
-      </c>
       <c r="E107" s="1">
         <v>1</v>
       </c>
       <c r="AV107" s="6" t="s">
+        <v>779</v>
+      </c>
+      <c r="AW107" s="6" t="s">
         <v>780</v>
-      </c>
-      <c r="AW107" s="6" t="s">
-        <v>781</v>
       </c>
       <c r="AX107" s="6"/>
     </row>
@@ -6104,7 +6107,7 @@
       </c>
       <c r="AV108" s="6"/>
       <c r="AW108" s="6" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="AX108" s="6"/>
     </row>
@@ -6301,10 +6304,10 @@
         <v>127</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="E119" s="1">
         <v>0</v>
@@ -6372,7 +6375,7 @@
         <v>289</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="E123" s="1">
         <v>0</v>
@@ -6386,7 +6389,7 @@
         <v>1122</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="C124" s="1" t="s">
         <v>490</v>
@@ -6421,10 +6424,10 @@
         <v>277</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="E125" s="1">
         <v>0</v>
@@ -6475,7 +6478,7 @@
         <v>356</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="E128" s="1">
         <v>0</v>
@@ -6556,7 +6559,7 @@
         <v>306</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="C133" s="1" t="s">
         <v>307</v>
@@ -6619,10 +6622,10 @@
         <v>1134</v>
       </c>
       <c r="B136" s="1" t="s">
+        <v>704</v>
+      </c>
+      <c r="C136" s="1" t="s">
         <v>705</v>
-      </c>
-      <c r="C136" s="1" t="s">
-        <v>706</v>
       </c>
       <c r="E136" s="1">
         <v>2</v>
@@ -7004,7 +7007,7 @@
         <v>3</v>
       </c>
       <c r="AV149" s="6" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="AW149" s="6"/>
       <c r="AX149" s="6"/>
@@ -8122,10 +8125,10 @@
         <v>3001</v>
       </c>
       <c r="B187" s="1" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="C187" s="1" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="E187" s="1">
         <v>1</v>
@@ -8142,10 +8145,10 @@
         <v>3002</v>
       </c>
       <c r="B188" s="1" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="C188" s="1" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="E188" s="1">
         <v>1</v>
@@ -8162,10 +8165,10 @@
         <v>3003</v>
       </c>
       <c r="B189" s="1" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="C189" s="1" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="E189" s="1">
         <v>1</v>
@@ -8185,7 +8188,7 @@
         <v>517</v>
       </c>
       <c r="C190" s="1" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="E190" s="1">
         <v>1</v>
@@ -8197,7 +8200,7 @@
         <v>276</v>
       </c>
       <c r="AW190" s="6" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="AX190" s="6"/>
     </row>
@@ -8206,10 +8209,10 @@
         <v>3005</v>
       </c>
       <c r="B191" s="1" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="C191" s="1" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="E191" s="1">
         <v>0</v>
@@ -8245,7 +8248,7 @@
         <v>520</v>
       </c>
       <c r="C193" s="1" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="E193" s="1">
         <v>0</v>
@@ -8274,7 +8277,7 @@
         <v>592</v>
       </c>
       <c r="AX194" s="6" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="AY194" s="1">
         <v>3095</v>
@@ -8288,7 +8291,7 @@
         <v>3009</v>
       </c>
       <c r="B195" s="1" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="C195" s="1" t="s">
         <v>522</v>
@@ -8303,7 +8306,7 @@
         <v>592</v>
       </c>
       <c r="AX195" s="6" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="AY195" s="1">
         <v>3095</v>
@@ -8320,7 +8323,7 @@
         <v>539</v>
       </c>
       <c r="C196" s="1" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="E196" s="1">
         <v>1</v>
@@ -8332,7 +8335,7 @@
         <v>590</v>
       </c>
       <c r="AX196" s="6" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="AY196" s="1">
         <v>3095</v>
@@ -8346,10 +8349,10 @@
         <v>3011</v>
       </c>
       <c r="B197" s="1" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="C197" s="1" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="E197" s="1">
         <v>0</v>
@@ -8366,13 +8369,13 @@
         <v>523</v>
       </c>
       <c r="C198" s="1" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="E198" s="1">
         <v>2</v>
       </c>
       <c r="AV198" s="6" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="AW198" s="1">
         <v>3008</v>
@@ -8401,7 +8404,7 @@
         <v>524</v>
       </c>
       <c r="C199" s="1" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="E199" s="1">
         <v>2</v>
@@ -8451,10 +8454,10 @@
         <v>276</v>
       </c>
       <c r="AW200" s="6" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="AX200" s="6" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="AY200" s="1">
         <v>3004</v>
@@ -8468,7 +8471,7 @@
         <v>526</v>
       </c>
       <c r="C201" s="9" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="E201" s="1">
         <v>1</v>
@@ -8489,7 +8492,7 @@
         <v>527</v>
       </c>
       <c r="C202" s="1" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="E202" s="1">
         <v>3</v>
@@ -8510,7 +8513,7 @@
         <v>528</v>
       </c>
       <c r="C203" s="1" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="E203" s="1">
         <v>0</v>
@@ -8539,17 +8542,17 @@
         <v>3018</v>
       </c>
       <c r="B204" s="1" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="C204" s="1" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="E204" s="1">
         <v>4</v>
       </c>
       <c r="AV204" s="6"/>
       <c r="AW204" s="6" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="AX204" s="6"/>
     </row>
@@ -8558,10 +8561,10 @@
         <v>3019</v>
       </c>
       <c r="B205" s="1" t="s">
+        <v>668</v>
+      </c>
+      <c r="C205" s="1" t="s">
         <v>669</v>
-      </c>
-      <c r="C205" s="1" t="s">
-        <v>670</v>
       </c>
       <c r="E205" s="1">
         <v>1</v>
@@ -8839,7 +8842,7 @@
         <v>544</v>
       </c>
       <c r="C216" s="1" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="E216" s="1">
         <v>0</v>
@@ -8856,10 +8859,10 @@
         <v>3031</v>
       </c>
       <c r="B217" s="1" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="C217" s="1" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="E217" s="1">
         <v>1</v>
@@ -8873,10 +8876,10 @@
         <v>3033</v>
       </c>
       <c r="B218" s="1" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="C218" s="1" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="E218" s="1">
         <v>0</v>
@@ -8893,10 +8896,10 @@
         <v>3034</v>
       </c>
       <c r="B219" s="1" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="C219" s="1" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="E219" s="1">
         <v>0</v>
@@ -8913,10 +8916,10 @@
         <v>3035</v>
       </c>
       <c r="B220" s="1" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="C220" s="1" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="E220" s="1">
         <v>0</v>
@@ -8950,7 +8953,7 @@
         <v>3039</v>
       </c>
       <c r="B222" s="1" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="C222" s="1" t="s">
         <v>564</v>
@@ -8984,7 +8987,7 @@
         <v>3041</v>
       </c>
       <c r="B224" s="1" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="C224" s="1" t="s">
         <v>567</v>
@@ -9004,7 +9007,7 @@
         <v>627</v>
       </c>
       <c r="C225" s="1" t="s">
-        <v>628</v>
+        <v>790</v>
       </c>
       <c r="E225" s="1">
         <v>0</v>
@@ -9021,7 +9024,7 @@
         <v>626</v>
       </c>
       <c r="C226" s="9" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="E226" s="1">
         <v>2</v>
@@ -9041,7 +9044,7 @@
         <v>576</v>
       </c>
       <c r="C227" s="1" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="E227" s="1">
         <v>0</v>
@@ -9088,7 +9091,7 @@
         <v>568</v>
       </c>
       <c r="C228" s="1" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="E228" s="1">
         <v>0</v>
@@ -9135,7 +9138,7 @@
         <v>578</v>
       </c>
       <c r="C229" s="1" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="E229" s="1">
         <v>0</v>
@@ -9182,7 +9185,7 @@
         <v>577</v>
       </c>
       <c r="C230" s="1" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="E230" s="1">
         <v>0</v>
@@ -9229,7 +9232,7 @@
         <v>575</v>
       </c>
       <c r="C231" s="1" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="E231" s="1">
         <v>0</v>
@@ -9276,7 +9279,7 @@
         <v>582</v>
       </c>
       <c r="C232" s="1" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="E232" s="1">
         <v>0</v>
@@ -9323,7 +9326,7 @@
         <v>573</v>
       </c>
       <c r="C233" s="1" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="E233" s="1">
         <v>0</v>
@@ -9370,7 +9373,7 @@
         <v>574</v>
       </c>
       <c r="C234" s="1" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="E234" s="1">
         <v>0</v>
@@ -9417,7 +9420,7 @@
         <v>572</v>
       </c>
       <c r="C235" s="1" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="E235" s="1">
         <v>0</v>
@@ -9464,7 +9467,7 @@
         <v>571</v>
       </c>
       <c r="C236" s="1" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="E236" s="1">
         <v>0</v>
@@ -9511,7 +9514,7 @@
         <v>570</v>
       </c>
       <c r="C237" s="1" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="E237" s="1">
         <v>0</v>
@@ -9558,7 +9561,7 @@
         <v>569</v>
       </c>
       <c r="C238" s="1" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="E238" s="1">
         <v>0</v>
@@ -9602,10 +9605,10 @@
         <v>3056</v>
       </c>
       <c r="B239" s="1" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="C239" s="1" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="E239" s="1">
         <v>0</v>
@@ -9631,7 +9634,7 @@
         <v>579</v>
       </c>
       <c r="C240" s="1" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="E240" s="1">
         <v>0</v>
@@ -9657,7 +9660,7 @@
         <v>580</v>
       </c>
       <c r="C241" s="1" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="E241" s="1">
         <v>0</v>
@@ -9683,7 +9686,7 @@
         <v>581</v>
       </c>
       <c r="C242" s="1" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="E242" s="1">
         <v>0</v>
@@ -9709,7 +9712,7 @@
         <v>563</v>
       </c>
       <c r="C243" s="1" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="E243" s="1">
         <v>0</v>
@@ -9785,7 +9788,7 @@
         <v>508</v>
       </c>
       <c r="C246" s="1" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="E246" s="1">
         <v>0</v>
@@ -9802,7 +9805,7 @@
         <v>596</v>
       </c>
       <c r="C247" s="1" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="E247" s="1">
         <v>1</v>
@@ -9876,13 +9879,13 @@
         <v>3035</v>
       </c>
       <c r="AF248" s="6" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="AG248" s="1">
         <v>3069</v>
       </c>
       <c r="AH248" s="6" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="AI248" s="6"/>
       <c r="AJ248" s="6"/>
@@ -9893,7 +9896,7 @@
         <v>293</v>
       </c>
       <c r="AW248" s="6" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="AX248" s="6"/>
       <c r="AY248" s="6"/>
@@ -9907,7 +9910,7 @@
         <v>599</v>
       </c>
       <c r="C249" s="1" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="E249" s="1">
         <v>1</v>
@@ -9927,7 +9930,7 @@
         <v>621</v>
       </c>
       <c r="D250" s="1" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="E250" s="1">
         <v>0</v>
@@ -9953,7 +9956,7 @@
         <v>622</v>
       </c>
       <c r="D251" s="1" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="E251" s="1">
         <v>0</v>
@@ -9976,7 +9979,7 @@
         <v>614</v>
       </c>
       <c r="C252" s="1" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="E252" s="1">
         <v>0</v>
@@ -9984,7 +9987,7 @@
       <c r="AV252" s="6"/>
       <c r="AW252" s="6"/>
       <c r="AX252" s="6" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
     </row>
     <row r="253" spans="1:52" ht="39.75" customHeight="1">
@@ -9992,13 +9995,13 @@
         <v>3072</v>
       </c>
       <c r="B253" s="1" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="C253" s="1" t="s">
+        <v>777</v>
+      </c>
+      <c r="D253" s="1" t="s">
         <v>778</v>
-      </c>
-      <c r="D253" s="1" t="s">
-        <v>779</v>
       </c>
       <c r="E253" s="1">
         <v>1</v>
@@ -10030,7 +10033,7 @@
         <v>615</v>
       </c>
       <c r="C254" s="1" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="E254" s="1">
         <v>0</v>
@@ -10047,7 +10050,7 @@
         <v>616</v>
       </c>
       <c r="C255" s="1" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="E255" s="1">
         <v>1</v>
@@ -10092,10 +10095,10 @@
         <v>3080</v>
       </c>
       <c r="B258" s="1" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="C258" s="1" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="E258" s="1">
         <v>2</v>
@@ -10109,10 +10112,10 @@
         <v>3081</v>
       </c>
       <c r="B259" s="1" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="C259" s="1" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="E259" s="1">
         <v>0</v>
@@ -10123,10 +10126,10 @@
         <v>3082</v>
       </c>
       <c r="B260" s="1" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="C260" s="1" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="E260" s="1">
         <v>0</v>
@@ -10137,10 +10140,10 @@
         <v>3083</v>
       </c>
       <c r="B261" s="1" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="C261" s="1" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="E261" s="1">
         <v>0</v>
@@ -10151,10 +10154,10 @@
         <v>3084</v>
       </c>
       <c r="B262" s="1" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="C262" s="1" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="E262" s="1">
         <v>0</v>
@@ -10186,10 +10189,10 @@
         <v>3085</v>
       </c>
       <c r="B263" s="1" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="C263" s="1" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="E263" s="1">
         <v>0</v>
@@ -10221,10 +10224,10 @@
         <v>3086</v>
       </c>
       <c r="B264" s="1" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="C264" s="1" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="E264" s="1">
         <v>0</v>
@@ -10256,10 +10259,10 @@
         <v>3087</v>
       </c>
       <c r="B265" s="1" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="C265" s="1" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="E265" s="1">
         <v>0</v>
@@ -10291,10 +10294,10 @@
         <v>3088</v>
       </c>
       <c r="B266" s="1" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="C266" s="1" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="E266" s="1">
         <v>0</v>
@@ -10326,10 +10329,10 @@
         <v>3089</v>
       </c>
       <c r="B267" s="1" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="C267" s="1" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="E267" s="1">
         <v>0</v>
@@ -10361,10 +10364,10 @@
         <v>3090</v>
       </c>
       <c r="B268" s="1" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="C268" s="1" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="E268" s="1">
         <v>0</v>
@@ -10396,10 +10399,10 @@
         <v>3091</v>
       </c>
       <c r="B269" s="1" t="s">
+        <v>728</v>
+      </c>
+      <c r="C269" s="1" t="s">
         <v>729</v>
-      </c>
-      <c r="C269" s="1" t="s">
-        <v>730</v>
       </c>
       <c r="E269" s="1">
         <v>1</v>
@@ -10431,10 +10434,10 @@
         <v>3092</v>
       </c>
       <c r="B270" s="1" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="C270" s="1" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="E270" s="1">
         <v>0</v>
@@ -10445,10 +10448,10 @@
         <v>3093</v>
       </c>
       <c r="B271" s="1" t="s">
+        <v>726</v>
+      </c>
+      <c r="C271" s="1" t="s">
         <v>727</v>
-      </c>
-      <c r="C271" s="1" t="s">
-        <v>728</v>
       </c>
       <c r="E271" s="1">
         <v>0</v>
@@ -10459,16 +10462,19 @@
         <v>3094</v>
       </c>
       <c r="B272" s="1" t="s">
+        <v>735</v>
+      </c>
+      <c r="C272" s="1" t="s">
         <v>736</v>
-      </c>
-      <c r="C272" s="1" t="s">
-        <v>737</v>
       </c>
       <c r="E272" s="1">
         <v>2</v>
       </c>
       <c r="AV272" s="1">
         <v>3095</v>
+      </c>
+      <c r="AW272" s="1">
+        <v>1014</v>
       </c>
     </row>
     <row r="273" spans="1:56" ht="39.75" customHeight="1">
@@ -10476,10 +10482,10 @@
         <v>3095</v>
       </c>
       <c r="B273" s="1" t="s">
+        <v>759</v>
+      </c>
+      <c r="C273" s="1" t="s">
         <v>760</v>
-      </c>
-      <c r="C273" s="1" t="s">
-        <v>761</v>
       </c>
       <c r="E273" s="1">
         <v>2</v>
@@ -10517,10 +10523,10 @@
         <v>3096</v>
       </c>
       <c r="B274" s="1" t="s">
+        <v>761</v>
+      </c>
+      <c r="C274" s="1" t="s">
         <v>762</v>
-      </c>
-      <c r="C274" s="1" t="s">
-        <v>763</v>
       </c>
       <c r="E274" s="1">
         <v>0</v>
@@ -10534,10 +10540,10 @@
         <v>3097</v>
       </c>
       <c r="B275" s="1" t="s">
+        <v>786</v>
+      </c>
+      <c r="C275" s="1" t="s">
         <v>787</v>
-      </c>
-      <c r="C275" s="1" t="s">
-        <v>788</v>
       </c>
       <c r="E275" s="1">
         <v>4</v>

--- a/data/zh-cn/talents.xlsx
+++ b/data/zh-cn/talents.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jiayuankevinguo/Desktop/life-final/data/zh-cn/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB1A91C1-954E-A540-A647-CC83DE614C97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD0CDBDF-B740-1F4B-8A12-4178267DACF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -221,7 +221,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="992" uniqueCount="791">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="993" uniqueCount="792">
   <si>
     <t>序号</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -2869,6 +2869,9 @@
   </si>
   <si>
     <t>全属性+1，全属性- 1</t>
+  </si>
+  <si>
+    <t>3077</t>
   </si>
 </sst>
 </file>
@@ -3288,10 +3291,10 @@
   <dimension ref="A1:BJ275"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="81" zoomScaleNormal="10" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="Z121" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="D10" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AC130" sqref="AC130"/>
+      <selection pane="bottomRight" activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="25.5" defaultRowHeight="39.75" customHeight="1"/>
@@ -8978,7 +8981,9 @@
       <c r="E223" s="1">
         <v>0</v>
       </c>
-      <c r="AV223" s="6"/>
+      <c r="AV223" s="6" t="s">
+        <v>791</v>
+      </c>
       <c r="AW223" s="6"/>
       <c r="AX223" s="6"/>
     </row>
@@ -10055,6 +10060,9 @@
       <c r="E255" s="1">
         <v>1</v>
       </c>
+      <c r="AV255" s="1">
+        <v>3040</v>
+      </c>
     </row>
     <row r="256" spans="1:52" ht="39.75" customHeight="1">
       <c r="A256" s="1">

--- a/data/zh-cn/talents.xlsx
+++ b/data/zh-cn/talents.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jiayuankevinguo/Desktop/life-final/data/zh-cn/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD0CDBDF-B740-1F4B-8A12-4178267DACF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3D4E412-371B-254F-8FFF-168E45A50501}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3291,10 +3291,10 @@
   <dimension ref="A1:BJ275"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="81" zoomScaleNormal="10" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="D10" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="D189" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="J15" sqref="J15"/>
+      <selection pane="bottomRight" activeCell="F199" sqref="F199"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="25.5" defaultRowHeight="39.75" customHeight="1"/>

--- a/data/zh-cn/talents.xlsx
+++ b/data/zh-cn/talents.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jiayuankevinguo/Desktop/life-final/data/zh-cn/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3D4E412-371B-254F-8FFF-168E45A50501}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2A47C30-D568-AD46-802A-7D2C76BB9097}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/data/zh-cn/talents.xlsx
+++ b/data/zh-cn/talents.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jiayuankevinguo/Desktop/life-final/data/zh-cn/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7C9AB98-AEE1-D24B-BF02-F2952E113077}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCFC9C59-E159-C546-9D15-8BF0A91B73E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2229,9 +2229,6 @@
     <t>Hana协会</t>
   </si>
   <si>
-    <t>Xi协会</t>
-  </si>
-  <si>
     <t>Tres协会</t>
   </si>
   <si>
@@ -2400,9 +2397,6 @@
     <t>成为收尾人则必定加入Cinq协会</t>
   </si>
   <si>
-    <t>成为收尾人则必定加入Xi协会</t>
-  </si>
-  <si>
     <t>成为收尾人则必定加入Tres协会</t>
   </si>
   <si>
@@ -2872,6 +2866,12 @@
   </si>
   <si>
     <t>3077</t>
+  </si>
+  <si>
+    <t>Shi协会</t>
+  </si>
+  <si>
+    <t>成为收尾人则必定加入Shi协会</t>
   </si>
 </sst>
 </file>
@@ -3291,10 +3291,10 @@
   <dimension ref="A1:BJ275"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="81" zoomScaleNormal="10" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="D189" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="AU261" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="G198" sqref="G198"/>
+      <selection pane="bottomRight" activeCell="AX270" sqref="AX270"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="25.5" defaultRowHeight="39.75" customHeight="1"/>
@@ -3778,7 +3778,7 @@
         <v>457</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
       <c r="E7" s="1">
         <v>2</v>
@@ -3872,10 +3872,10 @@
         <v>20</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="E12" s="1">
         <v>2</v>
@@ -3901,7 +3901,7 @@
         <v>131</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="E13" s="1">
         <v>0</v>
@@ -3915,10 +3915,10 @@
         <v>22</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="E14" s="1">
         <v>0</v>
@@ -3941,7 +3941,7 @@
         <v>459</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="E15" s="1">
         <v>0</v>
@@ -3961,10 +3961,10 @@
         <v>24</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="E16" s="1">
         <v>2</v>
@@ -4002,7 +4002,7 @@
         <v>132</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="E17" s="1">
         <v>1</v>
@@ -4033,10 +4033,10 @@
         <v>27</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="E19" s="1">
         <v>0</v>
@@ -4281,7 +4281,7 @@
         <v>38</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>162</v>
@@ -4298,16 +4298,16 @@
         <v>39</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="E31" s="1">
         <v>1</v>
       </c>
       <c r="AV31" s="6" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="AW31" s="6"/>
       <c r="AX31" s="6"/>
@@ -4398,7 +4398,7 @@
         <v>-10</v>
       </c>
       <c r="AV35" s="6" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
       <c r="AW35" s="6"/>
       <c r="AX35" s="6"/>
@@ -4502,10 +4502,10 @@
         <v>49</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="E41" s="1">
         <v>2</v>
@@ -4536,7 +4536,7 @@
         <v>51</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>161</v>
@@ -4555,7 +4555,7 @@
         <v>52</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>470</v>
@@ -4592,7 +4592,7 @@
         <v>164</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="E46" s="1">
         <v>0</v>
@@ -4609,7 +4609,7 @@
         <v>165</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="E47" s="1">
         <v>0</v>
@@ -4661,10 +4661,10 @@
         <v>58</v>
       </c>
       <c r="B50" s="1" t="s">
+        <v>602</v>
+      </c>
+      <c r="C50" s="1" t="s">
         <v>603</v>
-      </c>
-      <c r="C50" s="1" t="s">
-        <v>604</v>
       </c>
       <c r="E50" s="1">
         <v>0</v>
@@ -4690,7 +4690,7 @@
         <v>59</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="C51" s="1" t="s">
         <v>176</v>
@@ -4713,7 +4713,7 @@
         <v>60</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="C52" s="1" t="s">
         <v>177</v>
@@ -4736,7 +4736,7 @@
         <v>61</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="C53" s="1" t="s">
         <v>439</v>
@@ -4762,7 +4762,7 @@
         <v>62</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="C54" s="1" t="s">
         <v>440</v>
@@ -4785,7 +4785,7 @@
         <v>63</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="C55" s="1" t="s">
         <v>441</v>
@@ -5039,7 +5039,7 @@
         <v>74</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="C66" s="1" t="s">
         <v>505</v>
@@ -5059,7 +5059,7 @@
         <v>75</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="C67" s="1" t="s">
         <v>192</v>
@@ -5076,10 +5076,10 @@
         <v>76</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="D68" s="1" t="s">
         <v>512</v>
@@ -5171,7 +5171,7 @@
         <v>80</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="C72" s="1" t="s">
         <v>444</v>
@@ -5194,10 +5194,10 @@
         <v>81</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="E73" s="1">
         <v>0</v>
@@ -5211,10 +5211,10 @@
         <v>82</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="E74" s="1">
         <v>0</v>
@@ -5228,10 +5228,10 @@
         <v>83</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="E75" s="1">
         <v>0</v>
@@ -5268,7 +5268,7 @@
         <v>85</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="C77" s="1" t="s">
         <v>426</v>
@@ -5291,7 +5291,7 @@
         <v>86</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="C78" s="1" t="s">
         <v>446</v>
@@ -5314,7 +5314,7 @@
         <v>87</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="C79" s="1" t="s">
         <v>447</v>
@@ -5337,7 +5337,7 @@
         <v>88</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="C80" s="1" t="s">
         <v>212</v>
@@ -5360,7 +5360,7 @@
         <v>89</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="C81" s="1" t="s">
         <v>427</v>
@@ -5406,7 +5406,7 @@
         <v>91</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="C83" s="1" t="s">
         <v>448</v>
@@ -5441,7 +5441,7 @@
         <v>474</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
       <c r="D84" s="1" t="s">
         <v>215</v>
@@ -5473,7 +5473,7 @@
         <v>475</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
       <c r="D85" s="1" t="s">
         <v>215</v>
@@ -5520,7 +5520,7 @@
         <v>293</v>
       </c>
       <c r="AW86" s="6" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="AX86" s="6"/>
     </row>
@@ -5547,7 +5547,7 @@
         <v>293</v>
       </c>
       <c r="AW87" s="6" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="AX87" s="6"/>
     </row>
@@ -5571,7 +5571,7 @@
         <v>293</v>
       </c>
       <c r="AW88" s="6" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="AX88" s="6"/>
     </row>
@@ -5916,7 +5916,7 @@
         <v>109</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="C101" s="1" t="s">
         <v>454</v>
@@ -5939,10 +5939,10 @@
         <v>110</v>
       </c>
       <c r="B102" s="1" t="s">
+        <v>606</v>
+      </c>
+      <c r="C102" s="1" t="s">
         <v>607</v>
-      </c>
-      <c r="C102" s="1" t="s">
-        <v>608</v>
       </c>
       <c r="E102" s="1">
         <v>0</v>
@@ -5968,7 +5968,7 @@
         <v>232</v>
       </c>
       <c r="D103" s="5" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="E103" s="1">
         <v>0</v>
@@ -6064,10 +6064,10 @@
         <v>2</v>
       </c>
       <c r="AV106" s="6" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
       <c r="AW106" s="6" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
       <c r="AX106" s="6"/>
     </row>
@@ -6079,19 +6079,19 @@
         <v>235</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
       <c r="E107" s="1">
         <v>1</v>
       </c>
       <c r="AV107" s="6" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
       <c r="AW107" s="6" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
       <c r="AX107" s="6"/>
     </row>
@@ -6110,7 +6110,7 @@
       </c>
       <c r="AV108" s="6"/>
       <c r="AW108" s="6" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="AX108" s="6"/>
     </row>
@@ -6273,10 +6273,10 @@
         <v>125</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="E117" s="1">
         <v>0</v>
@@ -6290,7 +6290,7 @@
         <v>126</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="C118" s="1" t="s">
         <v>516</v>
@@ -6307,10 +6307,10 @@
         <v>127</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="E119" s="1">
         <v>0</v>
@@ -6378,7 +6378,7 @@
         <v>289</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="E123" s="1">
         <v>0</v>
@@ -6392,7 +6392,7 @@
         <v>1122</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="C124" s="1" t="s">
         <v>490</v>
@@ -6427,10 +6427,10 @@
         <v>277</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="E125" s="1">
         <v>0</v>
@@ -6481,7 +6481,7 @@
         <v>356</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="E128" s="1">
         <v>0</v>
@@ -6512,7 +6512,7 @@
         <v>282</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="C130" s="1" t="s">
         <v>301</v>
@@ -6562,7 +6562,7 @@
         <v>306</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="C133" s="1" t="s">
         <v>307</v>
@@ -6608,7 +6608,7 @@
         <v>1133</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="C135" s="1" t="s">
         <v>310</v>
@@ -6625,10 +6625,10 @@
         <v>1134</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="E136" s="1">
         <v>2</v>
@@ -6679,13 +6679,13 @@
         <v>1137</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="C139" s="1" t="s">
         <v>339</v>
       </c>
       <c r="D139" s="1" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="E139" s="1">
         <v>1</v>
@@ -7010,7 +7010,7 @@
         <v>3</v>
       </c>
       <c r="AV149" s="6" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="AW149" s="6"/>
       <c r="AX149" s="6"/>
@@ -8128,10 +8128,10 @@
         <v>3001</v>
       </c>
       <c r="B187" s="1" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="C187" s="1" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="E187" s="1">
         <v>1</v>
@@ -8148,10 +8148,10 @@
         <v>3002</v>
       </c>
       <c r="B188" s="1" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="C188" s="1" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="E188" s="1">
         <v>1</v>
@@ -8168,10 +8168,10 @@
         <v>3003</v>
       </c>
       <c r="B189" s="1" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="C189" s="1" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="E189" s="1">
         <v>1</v>
@@ -8191,7 +8191,7 @@
         <v>517</v>
       </c>
       <c r="C190" s="1" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
       <c r="E190" s="1">
         <v>1</v>
@@ -8203,7 +8203,7 @@
         <v>276</v>
       </c>
       <c r="AW190" s="6" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="AX190" s="6"/>
     </row>
@@ -8212,10 +8212,10 @@
         <v>3005</v>
       </c>
       <c r="B191" s="1" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="C191" s="1" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="E191" s="1">
         <v>0</v>
@@ -8251,7 +8251,7 @@
         <v>520</v>
       </c>
       <c r="C193" s="1" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="E193" s="1">
         <v>0</v>
@@ -8265,7 +8265,7 @@
         <v>3008</v>
       </c>
       <c r="B194" s="1" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="C194" s="1" t="s">
         <v>521</v>
@@ -8274,13 +8274,13 @@
         <v>1</v>
       </c>
       <c r="AV194" s="6" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="AW194" s="6" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="AX194" s="6" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="AY194" s="1">
         <v>3095</v>
@@ -8294,7 +8294,7 @@
         <v>3009</v>
       </c>
       <c r="B195" s="1" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="C195" s="1" t="s">
         <v>522</v>
@@ -8303,13 +8303,13 @@
         <v>1</v>
       </c>
       <c r="AV195" s="6" t="s">
+        <v>590</v>
+      </c>
+      <c r="AW195" s="6" t="s">
         <v>591</v>
       </c>
-      <c r="AW195" s="6" t="s">
-        <v>592</v>
-      </c>
       <c r="AX195" s="6" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="AY195" s="1">
         <v>3095</v>
@@ -8326,19 +8326,19 @@
         <v>539</v>
       </c>
       <c r="C196" s="1" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="E196" s="1">
         <v>1</v>
       </c>
       <c r="AV196" s="6" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="AW196" s="6" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="AX196" s="6" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="AY196" s="1">
         <v>3095</v>
@@ -8352,10 +8352,10 @@
         <v>3011</v>
       </c>
       <c r="B197" s="1" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="C197" s="1" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="E197" s="1">
         <v>0</v>
@@ -8372,13 +8372,13 @@
         <v>523</v>
       </c>
       <c r="C198" s="1" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
       <c r="E198" s="1">
         <v>2</v>
       </c>
       <c r="AV198" s="6" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="AW198" s="1">
         <v>3008</v>
@@ -8407,7 +8407,7 @@
         <v>524</v>
       </c>
       <c r="C199" s="1" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="E199" s="1">
         <v>2</v>
@@ -8457,10 +8457,10 @@
         <v>276</v>
       </c>
       <c r="AW200" s="6" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="AX200" s="6" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="AY200" s="1">
         <v>3004</v>
@@ -8474,7 +8474,7 @@
         <v>526</v>
       </c>
       <c r="C201" s="9" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
       <c r="E201" s="1">
         <v>1</v>
@@ -8495,7 +8495,7 @@
         <v>527</v>
       </c>
       <c r="C202" s="1" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="E202" s="1">
         <v>3</v>
@@ -8516,7 +8516,7 @@
         <v>528</v>
       </c>
       <c r="C203" s="1" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="E203" s="1">
         <v>0</v>
@@ -8545,17 +8545,17 @@
         <v>3018</v>
       </c>
       <c r="B204" s="1" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
       <c r="C204" s="1" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
       <c r="E204" s="1">
         <v>4</v>
       </c>
       <c r="AV204" s="6"/>
       <c r="AW204" s="6" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
       <c r="AX204" s="6"/>
     </row>
@@ -8564,10 +8564,10 @@
         <v>3019</v>
       </c>
       <c r="B205" s="1" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="C205" s="1" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="E205" s="1">
         <v>1</v>
@@ -8828,7 +8828,7 @@
         <v>540</v>
       </c>
       <c r="C215" s="1" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="E215" s="1">
         <v>1</v>
@@ -8845,7 +8845,7 @@
         <v>544</v>
       </c>
       <c r="C216" s="1" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="E216" s="1">
         <v>0</v>
@@ -8862,10 +8862,10 @@
         <v>3031</v>
       </c>
       <c r="B217" s="1" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="C217" s="1" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="E217" s="1">
         <v>1</v>
@@ -8879,10 +8879,10 @@
         <v>3033</v>
       </c>
       <c r="B218" s="1" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="C218" s="1" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="E218" s="1">
         <v>0</v>
@@ -8899,10 +8899,10 @@
         <v>3034</v>
       </c>
       <c r="B219" s="1" t="s">
+        <v>746</v>
+      </c>
+      <c r="C219" s="1" t="s">
         <v>748</v>
-      </c>
-      <c r="C219" s="1" t="s">
-        <v>750</v>
       </c>
       <c r="E219" s="1">
         <v>0</v>
@@ -8919,10 +8919,10 @@
         <v>3035</v>
       </c>
       <c r="B220" s="1" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
       <c r="C220" s="1" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="E220" s="1">
         <v>0</v>
@@ -8956,7 +8956,7 @@
         <v>3039</v>
       </c>
       <c r="B222" s="1" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="C222" s="1" t="s">
         <v>564</v>
@@ -8982,7 +8982,7 @@
         <v>0</v>
       </c>
       <c r="AV223" s="6" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
       <c r="AW223" s="6"/>
       <c r="AX223" s="6"/>
@@ -8992,7 +8992,7 @@
         <v>3041</v>
       </c>
       <c r="B224" s="1" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="C224" s="1" t="s">
         <v>567</v>
@@ -9009,10 +9009,10 @@
         <v>3042</v>
       </c>
       <c r="B225" s="1" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="C225" s="1" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
       <c r="E225" s="1">
         <v>0</v>
@@ -9026,10 +9026,10 @@
         <v>3043</v>
       </c>
       <c r="B226" s="1" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="C226" s="9" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="E226" s="1">
         <v>2</v>
@@ -9049,7 +9049,7 @@
         <v>576</v>
       </c>
       <c r="C227" s="1" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="E227" s="1">
         <v>0</v>
@@ -9096,7 +9096,7 @@
         <v>568</v>
       </c>
       <c r="C228" s="1" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="E228" s="1">
         <v>0</v>
@@ -9140,10 +9140,10 @@
         <v>3046</v>
       </c>
       <c r="B229" s="1" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="C229" s="1" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="E229" s="1">
         <v>0</v>
@@ -9187,10 +9187,10 @@
         <v>3047</v>
       </c>
       <c r="B230" s="1" t="s">
-        <v>577</v>
+        <v>790</v>
       </c>
       <c r="C230" s="1" t="s">
-        <v>634</v>
+        <v>791</v>
       </c>
       <c r="E230" s="1">
         <v>0</v>
@@ -9237,7 +9237,7 @@
         <v>575</v>
       </c>
       <c r="C231" s="1" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="E231" s="1">
         <v>0</v>
@@ -9281,10 +9281,10 @@
         <v>3049</v>
       </c>
       <c r="B232" s="1" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="C232" s="1" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="E232" s="1">
         <v>0</v>
@@ -9331,7 +9331,7 @@
         <v>573</v>
       </c>
       <c r="C233" s="1" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="E233" s="1">
         <v>0</v>
@@ -9378,7 +9378,7 @@
         <v>574</v>
       </c>
       <c r="C234" s="1" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="E234" s="1">
         <v>0</v>
@@ -9425,7 +9425,7 @@
         <v>572</v>
       </c>
       <c r="C235" s="1" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="E235" s="1">
         <v>0</v>
@@ -9472,7 +9472,7 @@
         <v>571</v>
       </c>
       <c r="C236" s="1" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="E236" s="1">
         <v>0</v>
@@ -9519,7 +9519,7 @@
         <v>570</v>
       </c>
       <c r="C237" s="1" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="E237" s="1">
         <v>0</v>
@@ -9566,7 +9566,7 @@
         <v>569</v>
       </c>
       <c r="C238" s="1" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="E238" s="1">
         <v>0</v>
@@ -9610,10 +9610,10 @@
         <v>3056</v>
       </c>
       <c r="B239" s="1" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="C239" s="1" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="E239" s="1">
         <v>0</v>
@@ -9636,10 +9636,10 @@
         <v>3057</v>
       </c>
       <c r="B240" s="1" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="C240" s="1" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="E240" s="1">
         <v>0</v>
@@ -9662,10 +9662,10 @@
         <v>3058</v>
       </c>
       <c r="B241" s="1" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="C241" s="1" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="E241" s="1">
         <v>0</v>
@@ -9688,10 +9688,10 @@
         <v>3059</v>
       </c>
       <c r="B242" s="1" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="C242" s="1" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="E242" s="1">
         <v>0</v>
@@ -9717,7 +9717,7 @@
         <v>563</v>
       </c>
       <c r="C243" s="1" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
       <c r="E243" s="1">
         <v>0</v>
@@ -9740,10 +9740,10 @@
         <v>3061</v>
       </c>
       <c r="B244" s="1" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="C244" s="1" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="E244" s="1">
         <v>2</v>
@@ -9763,10 +9763,10 @@
         <v>3062</v>
       </c>
       <c r="B245" s="1" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="C245" s="1" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="E245" s="1">
         <v>0</v>
@@ -9793,7 +9793,7 @@
         <v>508</v>
       </c>
       <c r="C246" s="1" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
       <c r="E246" s="1">
         <v>0</v>
@@ -9807,10 +9807,10 @@
         <v>3064</v>
       </c>
       <c r="B247" s="1" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C247" s="1" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="E247" s="1">
         <v>1</v>
@@ -9824,10 +9824,10 @@
         <v>3065</v>
       </c>
       <c r="B248" s="1" t="s">
+        <v>596</v>
+      </c>
+      <c r="C248" s="1" t="s">
         <v>597</v>
-      </c>
-      <c r="C248" s="1" t="s">
-        <v>598</v>
       </c>
       <c r="E248" s="1">
         <v>2</v>
@@ -9884,13 +9884,13 @@
         <v>3035</v>
       </c>
       <c r="AF248" s="6" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="AG248" s="1">
         <v>3069</v>
       </c>
       <c r="AH248" s="6" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="AI248" s="6"/>
       <c r="AJ248" s="6"/>
@@ -9901,7 +9901,7 @@
         <v>293</v>
       </c>
       <c r="AW248" s="6" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="AX248" s="6"/>
       <c r="AY248" s="6"/>
@@ -9912,10 +9912,10 @@
         <v>3066</v>
       </c>
       <c r="B249" s="1" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="C249" s="1" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="E249" s="1">
         <v>1</v>
@@ -9929,13 +9929,13 @@
         <v>3068</v>
       </c>
       <c r="B250" s="1" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="C250" s="1" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="D250" s="1" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="E250" s="1">
         <v>0</v>
@@ -9955,13 +9955,13 @@
         <v>3069</v>
       </c>
       <c r="B251" s="1" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="C251" s="1" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="D251" s="1" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="E251" s="1">
         <v>0</v>
@@ -9981,10 +9981,10 @@
         <v>3071</v>
       </c>
       <c r="B252" s="1" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="C252" s="1" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="E252" s="1">
         <v>0</v>
@@ -9992,7 +9992,7 @@
       <c r="AV252" s="6"/>
       <c r="AW252" s="6"/>
       <c r="AX252" s="6" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
     </row>
     <row r="253" spans="1:52" ht="39.75" customHeight="1">
@@ -10000,13 +10000,13 @@
         <v>3072</v>
       </c>
       <c r="B253" s="1" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="C253" s="1" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
       <c r="D253" s="1" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
       <c r="E253" s="1">
         <v>1</v>
@@ -10035,10 +10035,10 @@
         <v>3074</v>
       </c>
       <c r="B254" s="1" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="C254" s="1" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="E254" s="1">
         <v>0</v>
@@ -10052,10 +10052,10 @@
         <v>3077</v>
       </c>
       <c r="B255" s="1" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="C255" s="1" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="E255" s="1">
         <v>1</v>
@@ -10069,10 +10069,10 @@
         <v>3078</v>
       </c>
       <c r="B256" s="1" t="s">
+        <v>616</v>
+      </c>
+      <c r="C256" s="1" t="s">
         <v>617</v>
-      </c>
-      <c r="C256" s="1" t="s">
-        <v>618</v>
       </c>
       <c r="E256" s="1">
         <v>1</v>
@@ -10086,10 +10086,10 @@
         <v>3079</v>
       </c>
       <c r="B257" s="1" t="s">
+        <v>618</v>
+      </c>
+      <c r="C257" s="1" t="s">
         <v>619</v>
-      </c>
-      <c r="C257" s="1" t="s">
-        <v>620</v>
       </c>
       <c r="E257" s="1">
         <v>1</v>
@@ -10103,10 +10103,10 @@
         <v>3080</v>
       </c>
       <c r="B258" s="1" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="C258" s="1" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="E258" s="1">
         <v>2</v>
@@ -10114,16 +10114,22 @@
       <c r="AM258" s="6"/>
       <c r="AN258" s="6"/>
       <c r="AO258" s="6"/>
+      <c r="AV258" s="1">
+        <v>3094</v>
+      </c>
+      <c r="AW258" s="1">
+        <v>3095</v>
+      </c>
     </row>
     <row r="259" spans="1:54" ht="39.75" customHeight="1">
       <c r="A259" s="1">
         <v>3081</v>
       </c>
       <c r="B259" s="1" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="C259" s="1" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="E259" s="1">
         <v>0</v>
@@ -10134,10 +10140,10 @@
         <v>3082</v>
       </c>
       <c r="B260" s="1" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="C260" s="1" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="E260" s="1">
         <v>0</v>
@@ -10148,10 +10154,10 @@
         <v>3083</v>
       </c>
       <c r="B261" s="1" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="C261" s="1" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="E261" s="1">
         <v>0</v>
@@ -10162,10 +10168,10 @@
         <v>3084</v>
       </c>
       <c r="B262" s="1" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="C262" s="1" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
       <c r="E262" s="1">
         <v>0</v>
@@ -10197,10 +10203,10 @@
         <v>3085</v>
       </c>
       <c r="B263" s="1" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="C263" s="1" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
       <c r="E263" s="1">
         <v>0</v>
@@ -10232,10 +10238,10 @@
         <v>3086</v>
       </c>
       <c r="B264" s="1" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="C264" s="1" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
       <c r="E264" s="1">
         <v>0</v>
@@ -10267,10 +10273,10 @@
         <v>3087</v>
       </c>
       <c r="B265" s="1" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="C265" s="1" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="E265" s="1">
         <v>0</v>
@@ -10302,10 +10308,10 @@
         <v>3088</v>
       </c>
       <c r="B266" s="1" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="C266" s="1" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
       <c r="E266" s="1">
         <v>0</v>
@@ -10337,10 +10343,10 @@
         <v>3089</v>
       </c>
       <c r="B267" s="1" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="C267" s="1" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
       <c r="E267" s="1">
         <v>0</v>
@@ -10372,10 +10378,10 @@
         <v>3090</v>
       </c>
       <c r="B268" s="1" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="C268" s="1" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
       <c r="E268" s="1">
         <v>0</v>
@@ -10407,10 +10413,10 @@
         <v>3091</v>
       </c>
       <c r="B269" s="1" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="C269" s="1" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="E269" s="1">
         <v>1</v>
@@ -10442,10 +10448,10 @@
         <v>3092</v>
       </c>
       <c r="B270" s="1" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="C270" s="1" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="E270" s="1">
         <v>0</v>
@@ -10456,10 +10462,10 @@
         <v>3093</v>
       </c>
       <c r="B271" s="1" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="C271" s="1" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="E271" s="1">
         <v>0</v>
@@ -10470,10 +10476,10 @@
         <v>3094</v>
       </c>
       <c r="B272" s="1" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="C272" s="1" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="E272" s="1">
         <v>2</v>
@@ -10484,16 +10490,19 @@
       <c r="AW272" s="1">
         <v>1014</v>
       </c>
-    </row>
-    <row r="273" spans="1:56" ht="39.75" customHeight="1">
+      <c r="AX272" s="1">
+        <v>3080</v>
+      </c>
+    </row>
+    <row r="273" spans="1:57" ht="39.75" customHeight="1">
       <c r="A273" s="1">
         <v>3095</v>
       </c>
       <c r="B273" s="1" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
       <c r="C273" s="1" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="E273" s="1">
         <v>2</v>
@@ -10525,16 +10534,19 @@
       <c r="BD273" s="1" t="s">
         <v>542</v>
       </c>
-    </row>
-    <row r="274" spans="1:56" ht="39.75" customHeight="1">
+      <c r="BE273" s="1">
+        <v>3080</v>
+      </c>
+    </row>
+    <row r="274" spans="1:57" ht="39.75" customHeight="1">
       <c r="A274" s="1">
         <v>3096</v>
       </c>
       <c r="B274" s="1" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="C274" s="1" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="E274" s="1">
         <v>0</v>
@@ -10543,15 +10555,15 @@
         <v>1106</v>
       </c>
     </row>
-    <row r="275" spans="1:56" ht="39.75" customHeight="1">
+    <row r="275" spans="1:57" ht="39.75" customHeight="1">
       <c r="A275" s="1">
         <v>3097</v>
       </c>
       <c r="B275" s="1" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
       <c r="C275" s="1" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="E275" s="1">
         <v>4</v>

--- a/data/zh-cn/talents.xlsx
+++ b/data/zh-cn/talents.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jiayuankevinguo/Desktop/life-final/data/zh-cn/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCFC9C59-E159-C546-9D15-8BF0A91B73E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCE2F5EE-DAD5-4640-88C9-A1833193177D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/data/zh-cn/talents.xlsx
+++ b/data/zh-cn/talents.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jiayuankevinguo/Desktop/life-final/data/zh-cn/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCE2F5EE-DAD5-4640-88C9-A1833193177D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D986BC1-DC36-DB46-B196-2A541009EA60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3291,7 +3291,7 @@
   <dimension ref="A1:BJ275"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="81" zoomScaleNormal="10" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="AU261" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="AV261" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
       <selection pane="bottomRight" activeCell="AX270" sqref="AX270"/>
